--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -71,6 +71,9 @@
     <t>天命之子韩服群663659674</t>
   </si>
   <si>
+    <t>4x</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>5x肥</t>
-  </si>
-  <si>
-    <t>4x</t>
   </si>
   <si>
     <t>4b</t>
@@ -345,7 +345,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,13 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -400,30 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,20 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -466,8 +424,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,23 +449,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,22 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -545,13 +517,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,67 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,91 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +672,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,11 +874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,8 +892,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,36 +908,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -998,15 +930,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1015,153 +938,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,10 +1197,10 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1325,10 +1281,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1662,12 +1618,12 @@
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="30" spans="1:19">
+    <row r="1" ht="31.5" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1706,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1765,7 +1723,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1775,7 +1733,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1836,13 +1796,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1865,15 +1825,15 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="31" t="e">
+      <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1896,15 +1856,15 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="31" t="e">
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1927,15 +1887,15 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="31" t="e">
+      <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1958,15 +1918,15 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="31" t="e">
+        <v>2</v>
+      </c>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1995,9 +1955,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="31" t="e">
+      <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2026,9 +1986,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12" s="31" t="e">
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2057,9 +2017,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="31" t="e">
+      <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2088,9 +2048,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S14" s="32" t="e">
+      <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2119,9 +2079,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="31" t="e">
+      <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2150,9 +2110,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S16" s="31" t="e">
+      <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2181,9 +2141,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="31" t="e">
+      <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2212,9 +2172,9 @@
         <f>Q122</f>
         <v>0</v>
       </c>
-      <c r="S18" s="31" t="e">
+      <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2238,9 +2198,9 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="51" t="e">
+      <c r="S19" s="51">
         <f>SUM(S7:S18)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2594,7 +2554,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-21)/((Q105*11)+280)</f>
-        <v>-0.075</v>
+        <v>-0.0678571428571429</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4245,7 +4205,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -5433,7 +5393,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="15" spans="1:19">
+    <row r="122" ht="14.25" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5524,7 +5484,7 @@
       <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5549,7 +5509,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:19">
+    <row r="2" ht="31.5" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -5652,10 +5612,10 @@
         <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>80</v>
@@ -5670,7 +5630,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>28</v>
@@ -5695,7 +5655,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>31</v>
@@ -5728,7 +5688,7 @@
         <v>26</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
@@ -5755,16 +5715,16 @@
         <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>85</v>
@@ -5776,20 +5736,20 @@
         <v>87</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5797,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>26</v>
@@ -5806,7 +5766,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
@@ -5833,14 +5793,14 @@
         <v>28</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ref="R7:R14" si="0">COUNTIF($B$4:$P$43,Q7)</f>
@@ -5856,16 +5816,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>26</v>
@@ -5880,7 +5840,7 @@
         <v>29</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>27</v>
@@ -5889,7 +5849,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>27</v>
@@ -5899,7 +5859,7 @@
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -5927,7 +5887,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>83</v>
@@ -5939,7 +5899,7 @@
         <v>90</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>26</v>
@@ -5948,17 +5908,17 @@
         <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
@@ -5977,10 +5937,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>91</v>
@@ -5989,7 +5949,7 @@
         <v>92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>28</v>
@@ -6013,11 +5973,11 @@
         <v>93</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
@@ -6036,17 +5996,17 @@
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
@@ -6055,10 +6015,10 @@
         <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>26</v>
@@ -6106,13 +6066,13 @@
         <v>27</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>26</v>
@@ -6127,7 +6087,7 @@
         <v>27</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
@@ -6157,19 +6117,19 @@
         <v>31</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>31</v>
@@ -6211,7 +6171,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>26</v>
@@ -6223,16 +6183,16 @@
         <v>83</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>29</v>
@@ -6241,7 +6201,7 @@
         <v>26</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
@@ -6268,7 +6228,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>96</v>
@@ -6283,7 +6243,7 @@
         <v>96</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>92</v>
@@ -6298,7 +6258,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
@@ -6317,10 +6277,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
@@ -6330,16 +6290,16 @@
         <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>32</v>
@@ -6374,7 +6334,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>26</v>
@@ -6387,13 +6347,13 @@
         <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
@@ -6402,16 +6362,16 @@
         <v>27</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
@@ -6431,7 +6391,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>28</v>
@@ -6444,17 +6404,17 @@
         <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>28</v>
@@ -6487,18 +6447,18 @@
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
@@ -6533,7 +6493,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6541,7 +6501,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>91</v>
@@ -6571,7 +6531,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -6592,7 +6552,7 @@
         <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>26</v>
@@ -6637,10 +6597,10 @@
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -6661,12 +6621,12 @@
         <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>28</v>
@@ -6676,7 +6636,7 @@
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>26</v>
@@ -6703,7 +6663,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>26</v>
@@ -6733,7 +6693,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6744,11 +6704,11 @@
         <v>32</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -6774,10 +6734,10 @@
         <v>29</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
@@ -6854,7 +6814,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="13"/>
@@ -6876,11 +6836,11 @@
         <v>29</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -6916,7 +6876,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
@@ -6943,10 +6903,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>83</v>
@@ -6960,7 +6920,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -6986,7 +6946,7 @@
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7012,10 +6972,10 @@
         <v>31</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
@@ -7046,7 +7006,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -7055,7 +7015,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13"/>
@@ -7075,7 +7035,7 @@
         <v>27</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -7084,7 +7044,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13"/>
@@ -7104,7 +7064,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -7160,7 +7120,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7260,7 +7220,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>29</v>
@@ -8644,7 +8604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:19">
+    <row r="63" ht="14.25" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -71,10 +71,19 @@
     <t>天命之子韩服群663659674</t>
   </si>
   <si>
+    <t>血石</t>
+  </si>
+  <si>
+    <t>表格有误会更新，版本号左上角</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
     <t>4x</t>
   </si>
   <si>
-    <t>表格有误会更新，版本号左上角</t>
+    <t>4b</t>
   </si>
   <si>
     <t>种类</t>
@@ -86,27 +95,21 @@
     <t>占比</t>
   </si>
   <si>
+    <t>男仆</t>
+  </si>
+  <si>
     <t>币</t>
   </si>
   <si>
     <t>4x肥</t>
   </si>
   <si>
+    <t>5b</t>
+  </si>
+  <si>
     <t>5x肥</t>
   </si>
   <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>血石</t>
-  </si>
-  <si>
     <t>5a</t>
   </si>
   <si>
@@ -192,9 +195,6 @@
   </si>
   <si>
     <t>草莓</t>
-  </si>
-  <si>
-    <t>男仆</t>
   </si>
   <si>
     <t>摩根</t>
@@ -340,10 +340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -393,22 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -418,7 +402,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,22 +484,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -458,58 +500,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,14 +508,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,7 +636,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,13 +702,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,102 +762,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -780,7 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,6 +889,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -913,21 +961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -938,39 +971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -979,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,19 +991,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,112 +1012,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1618,12 +1618,12 @@
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:19">
+    <row r="1" ht="30" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1706,10 +1706,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1734,9 +1736,11 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1758,7 +1762,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1781,7 +1787,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1796,13 +1804,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1810,7 +1818,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1825,7 +1835,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
@@ -1841,7 +1851,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1856,7 +1868,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
@@ -1872,7 +1884,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1887,7 +1901,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
@@ -1903,7 +1917,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1918,15 +1934,15 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1934,7 +1950,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1949,15 +1967,15 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1965,7 +1983,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1980,15 +2000,15 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1996,7 +2016,6 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2011,15 +2030,15 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2027,7 +2046,6 @@
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2042,15 +2060,15 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2073,7 +2091,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
@@ -2104,7 +2122,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
@@ -2135,7 +2153,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
@@ -2166,15 +2184,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2223,7 +2241,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2248,7 +2266,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2273,7 +2291,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2298,7 +2316,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2323,7 +2341,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2348,7 +2366,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2419,14 +2437,14 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28" s="52" t="e">
+        <v>42</v>
+      </c>
+      <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2449,7 +2467,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2474,10 +2492,10 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2501,7 +2519,9 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
+      <c r="R31" s="13">
+        <v>1</v>
+      </c>
       <c r="S31" s="28"/>
     </row>
     <row r="32" spans="1:19">
@@ -2547,14 +2567,14 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S33" s="37">
         <f>(R104-21)/((Q105*11)+280)</f>
-        <v>-0.0678571428571429</v>
+        <v>-0.0321428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2577,7 +2597,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2602,7 +2622,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2627,7 +2647,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2652,7 +2672,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2677,7 +2697,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2702,7 +2722,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -4158,7 +4178,7 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -4182,13 +4202,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4201,17 +4221,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4233,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S105" s="28"/>
     </row>
@@ -4244,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="44">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(C3:C102,$A$106)</f>
         <v>0</v>
       </c>
       <c r="D106" s="44">
@@ -4313,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(C3:C102,$A$107)</f>
         <v>0</v>
       </c>
       <c r="D107" s="5">
@@ -4377,14 +4397,14 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
         <v>0</v>
       </c>
       <c r="C108" s="44">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(C3:C102,$A$108)</f>
         <v>0</v>
       </c>
       <c r="D108" s="44">
@@ -4445,19 +4465,19 @@
       </c>
       <c r="R108" s="44"/>
       <c r="S108" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
         <v>0</v>
       </c>
       <c r="C109" s="5">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C3:C102,$A$109)</f>
         <v>0</v>
       </c>
       <c r="D109" s="5">
@@ -4518,20 +4538,20 @@
       </c>
       <c r="R109" s="5"/>
       <c r="S109" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
         <v>0</v>
       </c>
       <c r="C110" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>COUNTIF(C3:C102,$A$110)</f>
+        <v>1</v>
       </c>
       <c r="D110" s="44">
         <f t="shared" si="7"/>
@@ -4587,11 +4607,11 @@
       </c>
       <c r="Q110" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" s="44"/>
       <c r="S110" s="28" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -4603,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(C3:C102,$A$111)</f>
         <v>0</v>
       </c>
       <c r="D111" s="5">
@@ -4676,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="44">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(C3:C102,$A$112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="44">
@@ -4749,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(C3:C102,$A$113)</f>
         <v>0</v>
       </c>
       <c r="D113" s="5">
@@ -4822,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="44">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(C3:C102,$A$114)</f>
         <v>0</v>
       </c>
       <c r="D114" s="44">
@@ -4895,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="5">
-        <f t="shared" si="12"/>
+        <f>COUNTIF(C3:C102,$A$115)</f>
         <v>0</v>
       </c>
       <c r="D115" s="5">
@@ -4968,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="44">
-        <f t="shared" si="13"/>
+        <f>COUNTIF(C3:C102,$A$116)</f>
         <v>0</v>
       </c>
       <c r="D116" s="44">
@@ -5041,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="5">
-        <f t="shared" si="14"/>
+        <f>COUNTIF(C3:C102,$A$117)</f>
         <v>0</v>
       </c>
       <c r="D117" s="5">
@@ -5114,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="44">
-        <f t="shared" si="15"/>
+        <f>COUNTIF(C3:C102,$A$118)</f>
         <v>0</v>
       </c>
       <c r="D118" s="44">
@@ -5187,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="54">
-        <f t="shared" si="16"/>
+        <f>COUNTIF(C3:C102,$A$119)</f>
         <v>0</v>
       </c>
       <c r="D119" s="54">
@@ -5260,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="44">
-        <f t="shared" si="17"/>
+        <f>COUNTIF(C3:C102,$A$120)</f>
         <v>0</v>
       </c>
       <c r="D120" s="44">
@@ -5331,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="5">
-        <f t="shared" si="18"/>
+        <f>COUNTIF(C3:C102,$A$121)</f>
         <v>0</v>
       </c>
       <c r="D121" s="5">
@@ -5393,7 +5413,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="14.25" spans="1:19">
+    <row r="122" ht="15" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5403,7 +5423,7 @@
       </c>
       <c r="C122" s="55">
         <f t="shared" ref="C122:Q122" si="19">SUM(C106:C121)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="55">
         <f t="shared" si="19"/>
@@ -5459,7 +5479,7 @@
       </c>
       <c r="Q122" s="57">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5484,7 +5504,7 @@
       <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5509,7 +5529,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="31.5" spans="1:19">
+    <row r="2" ht="30" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -5594,10 +5614,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>77</v>
@@ -5609,31 +5629,31 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
@@ -5652,43 +5672,43 @@
         <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
@@ -5700,31 +5720,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>85</v>
@@ -5736,20 +5756,20 @@
         <v>87</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5757,31 +5777,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>89</v>
@@ -5790,17 +5810,17 @@
         <v>90</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ref="R7:R14" si="0">COUNTIF($B$4:$P$43,Q7)</f>
@@ -5816,50 +5836,50 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="N8" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -5875,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -5887,7 +5907,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>83</v>
@@ -5899,26 +5919,26 @@
         <v>90</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
@@ -5934,13 +5954,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>91</v>
@@ -5949,10 +5969,10 @@
         <v>92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>88</v>
@@ -5961,23 +5981,23 @@
         <v>83</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
@@ -5996,45 +6016,45 @@
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>94</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="0"/>
@@ -6050,48 +6070,48 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
@@ -6114,41 +6134,41 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6164,17 +6184,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>95</v>
@@ -6183,29 +6203,29 @@
         <v>83</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="0"/>
@@ -6221,14 +6241,14 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>96</v>
@@ -6237,13 +6257,13 @@
         <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>92</v>
@@ -6252,17 +6272,17 @@
         <v>78</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6277,32 +6297,32 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>86</v>
@@ -6311,14 +6331,14 @@
         <v>90</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="5">
         <f>COUNTIF($B$4:$P$43,Q16)</f>
@@ -6334,48 +6354,48 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="M17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6391,44 +6411,44 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6444,38 +6464,38 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -6490,10 +6510,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6501,7 +6521,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>91</v>
@@ -6514,12 +6534,12 @@
         <v>89</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="13"/>
@@ -6531,31 +6551,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -6564,10 +6584,10 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -6579,34 +6599,34 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="13"/>
@@ -6618,34 +6638,34 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="13"/>
@@ -6658,18 +6678,18 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
@@ -6693,7 +6713,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6701,21 +6721,21 @@
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="13"/>
@@ -6731,13 +6751,13 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
@@ -6764,17 +6784,17 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -6803,7 +6823,7 @@
         <v>90</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="8" t="s">
@@ -6814,7 +6834,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="13"/>
@@ -6833,28 +6853,28 @@
         <v>90</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -6870,24 +6890,24 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="13"/>
@@ -6903,10 +6923,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>83</v>
@@ -6920,7 +6940,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -6939,21 +6959,21 @@
         <v>89</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>92</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="13"/>
@@ -6969,24 +6989,24 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="13"/>
@@ -7003,10 +7023,10 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -7015,7 +7035,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13"/>
@@ -7032,10 +7052,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -7044,7 +7064,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13"/>
@@ -7064,7 +7084,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -7073,7 +7093,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="13"/>
@@ -7093,7 +7113,7 @@
         <v>102</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7117,10 +7137,10 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7147,7 +7167,7 @@
         <v>98</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -7171,7 +7191,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7220,10 +7240,10 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -7247,10 +7267,10 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -7267,7 +7287,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B44" s="13">
         <v>3</v>
@@ -7340,7 +7360,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7350,7 +7370,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7400,7 +7420,7 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" s="28"/>
     </row>
@@ -8604,7 +8624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:19">
+    <row r="63" ht="15" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -86,6 +86,9 @@
     <t>4b</t>
   </si>
   <si>
+    <t>币</t>
+  </si>
+  <si>
     <t>种类</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>男仆</t>
-  </si>
-  <si>
-    <t>币</t>
   </si>
   <si>
     <t>4x肥</t>
@@ -1615,10 +1615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1765,7 +1765,9 @@
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1790,7 +1792,9 @@
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1804,13 +1808,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1819,9 +1823,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1835,15 +1841,15 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1854,7 +1860,9 @@
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1938,11 +1946,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1975,7 +1983,7 @@
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2008,7 +2016,7 @@
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0833333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2038,10 +2046,10 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2063,12 +2071,15 @@
         <v>18</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>COUNTIF($B$3:$P$102,Q14)</f>
+        <v>5</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.3125</v>
+      </c>
+      <c r="T14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2192,7 +2203,7 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0833333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2520,7 +2531,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="28"/>
     </row>
@@ -2574,7 +2585,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-21)/((Q105*11)+280)</f>
-        <v>-0.0321428571428571</v>
+        <v>-0.0178571428571429</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4225,7 +4236,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -4543,7 +4554,7 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
@@ -4611,7 +4622,7 @@
       </c>
       <c r="R110" s="44"/>
       <c r="S110" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -5708,7 +5719,7 @@
         <v>22</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
@@ -5763,13 +5774,13 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5820,7 +5831,7 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ref="R7:R14" si="0">COUNTIF($B$4:$P$43,Q7)</f>
@@ -5869,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>20</v>
@@ -5907,7 +5918,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>83</v>
@@ -6023,7 +6034,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>21</v>
@@ -6382,7 +6393,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>29</v>
@@ -6513,7 +6524,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6926,7 +6937,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>83</v>
@@ -6992,7 +7003,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>30</v>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -1618,7 +1618,7 @@
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2531,7 +2531,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" s="28"/>
     </row>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -107,6 +107,9 @@
     <t>5b</t>
   </si>
   <si>
+    <t>提箱</t>
+  </si>
+  <si>
     <t>5x肥</t>
   </si>
   <si>
@@ -216,9 +219,6 @@
   </si>
   <si>
     <t>骷髅</t>
-  </si>
-  <si>
-    <t>提箱</t>
   </si>
   <si>
     <t>熊妹</t>
@@ -1618,7 +1618,7 @@
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0625</v>
+        <v>0.0588235294117647</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1895,7 +1895,9 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1909,7 +1911,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
@@ -1950,7 +1952,7 @@
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.294117647058824</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1983,7 +1985,7 @@
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.117647058823529</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2016,7 +2018,7 @@
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0625</v>
+        <v>0.0588235294117647</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2046,7 +2048,7 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0625</v>
+        <v>0.0588235294117647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2076,7 +2078,7 @@
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="T14">
         <v>11</v>
@@ -2102,7 +2104,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
@@ -2133,7 +2135,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
@@ -2164,7 +2166,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
@@ -2195,15 +2197,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0625</v>
+        <v>0.117647058823529</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2252,7 +2254,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2277,7 +2279,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2302,7 +2304,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2327,7 +2329,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2352,7 +2354,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2377,7 +2379,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2448,10 +2450,10 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
@@ -2478,7 +2480,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2503,10 +2505,10 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2578,14 +2580,14 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S33" s="37">
         <f>(R104-21)/((Q105*11)+280)</f>
-        <v>-0.0178571428571429</v>
+        <v>-0.0142857142857143</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2608,7 +2610,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2633,7 +2635,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2658,7 +2660,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2683,7 +2685,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2708,7 +2710,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2733,7 +2735,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -4213,13 +4215,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4232,17 +4234,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4264,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" s="28"/>
     </row>
@@ -4408,7 +4410,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4476,12 +4478,12 @@
       </c>
       <c r="R108" s="44"/>
       <c r="S108" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4549,7 +4551,7 @@
       </c>
       <c r="R109" s="5"/>
       <c r="S109" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -4627,7 +4629,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -4695,12 +4697,12 @@
       </c>
       <c r="R111" s="5"/>
       <c r="S111" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -4768,12 +4770,12 @@
       </c>
       <c r="R112" s="44"/>
       <c r="S112" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" ref="B113:P113" si="10">COUNTIF(B3:B102,$A$113)</f>
@@ -4841,12 +4843,12 @@
       </c>
       <c r="R113" s="5"/>
       <c r="S113" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B114" s="44">
         <f t="shared" ref="B114:P114" si="11">COUNTIF(B3:B102,$A$114)</f>
@@ -4914,12 +4916,12 @@
       </c>
       <c r="R114" s="44"/>
       <c r="S114" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" ref="B115:P115" si="12">COUNTIF(B3:B102,$A$115)</f>
@@ -4987,12 +4989,12 @@
       </c>
       <c r="R115" s="5"/>
       <c r="S115" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B116" s="44">
         <f t="shared" ref="B116:P116" si="13">COUNTIF(B3:B102,$A$116)</f>
@@ -5060,12 +5062,12 @@
       </c>
       <c r="R116" s="44"/>
       <c r="S116" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" ref="B117:P117" si="14">COUNTIF(B3:B102,$A$117)</f>
@@ -5133,12 +5135,12 @@
       </c>
       <c r="R117" s="5"/>
       <c r="S117" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="18" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B118" s="44">
         <f t="shared" ref="B118:P118" si="15">COUNTIF(B3:B102,$A$118)</f>
@@ -5150,7 +5152,7 @@
       </c>
       <c r="D118" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="44">
         <f t="shared" si="15"/>
@@ -5202,11 +5204,11 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" s="44"/>
       <c r="S118" s="28" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -5438,7 +5440,7 @@
       </c>
       <c r="D122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="55">
         <f t="shared" si="19"/>
@@ -5490,7 +5492,7 @@
       </c>
       <c r="Q122" s="57">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5689,7 +5691,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
@@ -5788,7 +5790,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -5877,7 +5879,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>23</v>
@@ -5949,7 +5951,7 @@
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
@@ -5971,7 +5973,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>91</v>
@@ -6043,13 +6045,13 @@
         <v>29</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>22</v>
@@ -6091,7 +6093,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>20</v>
@@ -6145,7 +6147,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>21</v>
@@ -6163,13 +6165,13 @@
         <v>21</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>22</v>
@@ -6195,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>29</v>
@@ -6214,13 +6216,13 @@
         <v>83</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>28</v>
@@ -6283,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>18</v>
@@ -6293,7 +6295,7 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6308,14 +6310,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>22</v>
@@ -6333,7 +6335,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>86</v>
@@ -6342,14 +6344,14 @@
         <v>90</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="5">
         <f>COUNTIF($B$4:$P$43,Q16)</f>
@@ -6365,7 +6367,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>22</v>
@@ -6406,7 +6408,7 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6422,7 +6424,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>29</v>
@@ -6438,14 +6440,14 @@
         <v>21</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>29</v>
@@ -6459,7 +6461,7 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6595,10 +6597,10 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -6676,7 +6678,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="13"/>
@@ -6732,7 +6734,7 @@
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>21</v>
@@ -6768,7 +6770,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
@@ -6882,10 +6884,10 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -7000,13 +7002,13 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
@@ -7034,7 +7036,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>21</v>
@@ -7371,7 +7373,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7381,7 +7383,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7431,7 +7433,7 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" s="28"/>
     </row>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -74,6 +74,9 @@
     <t>血石</t>
   </si>
   <si>
+    <t>温泉皮</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
@@ -113,12 +116,12 @@
     <t>5x肥</t>
   </si>
   <si>
+    <t>护士</t>
+  </si>
+  <si>
     <t>5a</t>
   </si>
   <si>
-    <t>温泉皮</t>
-  </si>
-  <si>
     <t>皮！</t>
   </si>
   <si>
@@ -222,9 +225,6 @@
   </si>
   <si>
     <t>熊妹</t>
-  </si>
-  <si>
-    <t>名称可填</t>
   </si>
   <si>
     <t>可改</t>
@@ -340,10 +340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -394,7 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,8 +408,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,14 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -439,30 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +455,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +478,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -500,7 +495,35 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,30 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,126 +630,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -762,7 +642,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +714,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,54 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -961,6 +913,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -971,6 +938,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -979,145 +979,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1618,12 +1618,12 @@
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="30" spans="1:19">
+    <row r="1" ht="31.5" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1712,9 @@
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1725,7 +1727,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1736,12 +1738,14 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1763,12 +1767,14 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1790,12 +1796,14 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1808,13 +1816,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1823,12 +1831,14 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1841,7 +1851,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
@@ -1849,7 +1859,7 @@
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0588235294117647</v>
+        <v>0.0333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1863,7 +1873,9 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1876,7 +1888,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
@@ -1893,12 +1905,14 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1911,7 +1925,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
@@ -1928,10 +1942,14 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1944,15 +1962,15 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.294117647058824</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1961,9 +1979,11 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1977,15 +1997,15 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.117647058823529</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1994,9 +2014,11 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2010,7 +2032,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
@@ -2018,7 +2040,7 @@
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0588235294117647</v>
+        <v>0.0333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2026,7 +2048,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2040,15 +2064,15 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0588235294117647</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2056,7 +2080,9 @@
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2073,15 +2099,15 @@
         <v>18</v>
       </c>
       <c r="R14" s="10">
-        <f>COUNTIF($B$3:$P$102,Q14)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.294117647058824</v>
+        <v>0.2</v>
       </c>
       <c r="T14">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2104,7 +2130,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
@@ -2135,15 +2161,15 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2166,7 +2192,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
@@ -2197,15 +2223,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.117647058823529</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2254,7 +2280,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2279,7 +2305,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2304,7 +2330,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2329,7 +2355,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2354,7 +2380,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2379,7 +2405,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2450,10 +2476,10 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
@@ -2480,7 +2506,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2505,10 +2531,10 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2533,7 +2559,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" s="28"/>
     </row>
@@ -2580,14 +2606,14 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S33" s="37">
         <f>(R104-21)/((Q105*11)+280)</f>
-        <v>-0.0142857142857143</v>
+        <v>0.0321428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2610,7 +2636,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2635,7 +2661,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2660,7 +2686,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2685,7 +2711,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2710,7 +2736,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2735,7 +2761,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -4215,13 +4241,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4234,17 +4260,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4266,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S105" s="28"/>
     </row>
@@ -4410,7 +4436,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4478,12 +4504,12 @@
       </c>
       <c r="R108" s="44"/>
       <c r="S108" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4551,12 +4577,12 @@
       </c>
       <c r="R109" s="5"/>
       <c r="S109" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
@@ -4622,14 +4648,16 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R110" s="44"/>
+      <c r="R110" s="44">
+        <v>6</v>
+      </c>
       <c r="S110" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -4695,14 +4723,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R111" s="5"/>
+      <c r="R111" s="5">
+        <v>6</v>
+      </c>
       <c r="S111" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -4770,12 +4800,12 @@
       </c>
       <c r="R112" s="44"/>
       <c r="S112" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" ref="B113:P113" si="10">COUNTIF(B3:B102,$A$113)</f>
@@ -4843,12 +4873,12 @@
       </c>
       <c r="R113" s="5"/>
       <c r="S113" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B114" s="44">
         <f t="shared" ref="B114:P114" si="11">COUNTIF(B3:B102,$A$114)</f>
@@ -4916,12 +4946,12 @@
       </c>
       <c r="R114" s="44"/>
       <c r="S114" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" ref="B115:P115" si="12">COUNTIF(B3:B102,$A$115)</f>
@@ -4989,12 +5019,12 @@
       </c>
       <c r="R115" s="5"/>
       <c r="S115" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B116" s="44">
         <f t="shared" ref="B116:P116" si="13">COUNTIF(B3:B102,$A$116)</f>
@@ -5062,12 +5092,12 @@
       </c>
       <c r="R116" s="44"/>
       <c r="S116" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" ref="B117:P117" si="14">COUNTIF(B3:B102,$A$117)</f>
@@ -5135,12 +5165,12 @@
       </c>
       <c r="R117" s="5"/>
       <c r="S117" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B118" s="44">
         <f t="shared" ref="B118:P118" si="15">COUNTIF(B3:B102,$A$118)</f>
@@ -5156,7 +5186,7 @@
       </c>
       <c r="E118" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" s="44">
         <f t="shared" si="15"/>
@@ -5204,16 +5234,16 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R118" s="44"/>
       <c r="S118" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B119" s="54">
         <f t="shared" ref="B119:P119" si="16">COUNTIF(B3:B102,$A$119)</f>
@@ -5281,12 +5311,12 @@
       </c>
       <c r="R119" s="5"/>
       <c r="S119" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="18" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B120" s="44">
         <f t="shared" ref="B120:P120" si="17">COUNTIF(B3:B102,$A$120)</f>
@@ -5298,7 +5328,7 @@
       </c>
       <c r="D120" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="44">
         <f t="shared" si="17"/>
@@ -5350,10 +5380,12 @@
       </c>
       <c r="Q120" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" s="44"/>
-      <c r="S120" s="28"/>
+      <c r="S120" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="4" t="s">
@@ -5426,7 +5458,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="15" spans="1:19">
+    <row r="122" ht="14.25" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5440,11 +5472,11 @@
       </c>
       <c r="D122" s="55">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="55">
         <f t="shared" si="19"/>
@@ -5492,7 +5524,7 @@
       </c>
       <c r="Q122" s="57">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5517,7 +5549,7 @@
       <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5542,7 +5574,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:19">
+    <row r="2" ht="31.5" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -5627,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -5642,19 +5674,19 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
@@ -5663,10 +5695,10 @@
         <v>18</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
@@ -5685,43 +5717,43 @@
         <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
@@ -5736,10 +5768,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
@@ -5748,16 +5780,16 @@
         <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>85</v>
@@ -5769,20 +5801,20 @@
         <v>87</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5790,31 +5822,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>89</v>
@@ -5823,17 +5855,17 @@
         <v>90</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ref="R7:R14" si="0">COUNTIF($B$4:$P$43,Q7)</f>
@@ -5849,50 +5881,50 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -5908,10 +5940,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -5920,7 +5952,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>83</v>
@@ -5932,26 +5964,26 @@
         <v>90</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
@@ -5967,13 +5999,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>91</v>
@@ -5982,10 +6014,10 @@
         <v>92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>88</v>
@@ -5994,23 +6026,23 @@
         <v>83</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
@@ -6029,32 +6061,32 @@
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>94</v>
@@ -6067,7 +6099,7 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="0"/>
@@ -6083,48 +6115,48 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
@@ -6147,41 +6179,41 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6197,17 +6229,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>95</v>
@@ -6216,25 +6248,25 @@
         <v>83</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
@@ -6257,11 +6289,11 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>96</v>
@@ -6270,13 +6302,13 @@
         <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>92</v>
@@ -6285,17 +6317,17 @@
         <v>78</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6310,32 +6342,32 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>86</v>
@@ -6344,14 +6376,14 @@
         <v>90</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="R16" s="5">
         <f>COUNTIF($B$4:$P$43,Q16)</f>
@@ -6367,48 +6399,48 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6424,44 +6456,44 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6477,21 +6509,21 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
@@ -6504,11 +6536,11 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -6523,10 +6555,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6534,7 +6566,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>91</v>
@@ -6547,7 +6579,7 @@
         <v>89</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -6564,10 +6596,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -6575,20 +6607,20 @@
         <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -6597,10 +6629,10 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -6612,34 +6644,34 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="13"/>
@@ -6654,31 +6686,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="13"/>
@@ -6691,18 +6723,18 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
@@ -6726,7 +6758,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6734,21 +6766,21 @@
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="13"/>
@@ -6767,10 +6799,10 @@
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
@@ -6797,17 +6829,17 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -6847,7 +6879,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="13"/>
@@ -6869,25 +6901,25 @@
         <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -6903,17 +6935,17 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -6936,10 +6968,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>83</v>
@@ -6953,7 +6985,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -6972,14 +7004,14 @@
         <v>89</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>92</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7002,24 +7034,24 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="13"/>
@@ -7036,10 +7068,10 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -7048,7 +7080,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13"/>
@@ -7065,10 +7097,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -7077,7 +7109,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13"/>
@@ -7097,7 +7129,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -7126,7 +7158,7 @@
         <v>102</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7150,10 +7182,10 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7204,7 +7236,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7253,7 +7285,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>18</v>
@@ -7280,10 +7312,10 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -7373,7 +7405,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7383,7 +7415,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7433,7 +7465,7 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S46" s="28"/>
     </row>
@@ -8637,7 +8669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:19">
+    <row r="63" ht="14.25" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -119,6 +119,9 @@
     <t>护士</t>
   </si>
   <si>
+    <t>萨拉丁</t>
+  </si>
+  <si>
     <t>5a</t>
   </si>
   <si>
@@ -206,9 +209,6 @@
     <t>摩根</t>
   </si>
   <si>
-    <t>萨拉丁</t>
-  </si>
-  <si>
     <t>南瓜</t>
   </si>
   <si>
@@ -224,6 +224,9 @@
     <t>骷髅</t>
   </si>
   <si>
+    <t>6+</t>
+  </si>
+  <si>
     <t>熊妹</t>
   </si>
   <si>
@@ -330,9 +333,6 @@
   </si>
   <si>
     <t>光高达</t>
-  </si>
-  <si>
-    <t>6+</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="R119" sqref="R119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0333333333333333</v>
+        <v>0.0256410256410256</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1966,11 +1966,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1984,7 +1984,9 @@
       <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2001,11 +2003,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.128205128205128</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2019,7 +2021,9 @@
       <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2036,11 +2040,11 @@
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0333333333333333</v>
+        <v>0.0512820512820513</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2051,7 +2055,9 @@
       <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2072,10 +2078,10 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0666666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>0.0512820512820513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2083,7 +2089,9 @@
       <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2100,14 +2108,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="T14">
-        <v>16</v>
+        <v>0.179487179487179</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2117,7 +2122,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2130,7 +2137,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
@@ -2148,7 +2155,9 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2169,7 +2178,7 @@
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0333333333333333</v>
+        <v>0.0256410256410256</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2179,7 +2188,9 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2192,7 +2203,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
@@ -2210,7 +2221,9 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2223,15 +2236,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.133333333333333</v>
+        <v>0.205128205128205</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2241,7 +2254,9 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2280,7 +2295,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2305,7 +2320,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2330,7 +2345,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2355,7 +2370,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2380,7 +2395,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2405,7 +2420,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2476,14 +2491,14 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2506,7 +2521,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2531,10 +2546,10 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2558,9 +2573,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="13">
-        <v>4</v>
-      </c>
+      <c r="R31" s="13"/>
       <c r="S31" s="28"/>
     </row>
     <row r="32" spans="1:19">
@@ -2606,14 +2619,14 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S33" s="37">
-        <f>(R104-21)/((Q105*11)+280)</f>
-        <v>0.0321428571428571</v>
+        <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*30-40)</f>
+        <v>0.251851851851852</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2636,7 +2649,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2661,7 +2674,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2686,7 +2699,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2711,7 +2724,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2736,7 +2749,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2761,7 +2774,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -4220,9 +4233,15 @@
         <v>18</v>
       </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
+      <c r="C103" s="13">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103" s="13">
+        <v>3</v>
+      </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -4241,13 +4260,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4260,17 +4279,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4288,11 +4307,10 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <f>SUM(B105:P105)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S105" s="28"/>
     </row>
@@ -4436,7 +4454,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4502,14 +4520,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R108" s="44"/>
+      <c r="R108" s="44">
+        <v>5</v>
+      </c>
       <c r="S108" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4575,9 +4595,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R109" s="5"/>
+      <c r="R109" s="5">
+        <v>1</v>
+      </c>
       <c r="S109" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -4657,7 +4679,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -4727,12 +4749,12 @@
         <v>6</v>
       </c>
       <c r="S111" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -4748,7 +4770,7 @@
       </c>
       <c r="E112" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="44">
         <f t="shared" si="9"/>
@@ -4796,11 +4818,13 @@
       </c>
       <c r="Q112" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R112" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="R112" s="44">
+        <v>4</v>
+      </c>
       <c r="S112" s="28" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -4871,7 +4895,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R113" s="5"/>
+      <c r="R113" s="5">
+        <v>1</v>
+      </c>
       <c r="S113" s="28" t="s">
         <v>64</v>
       </c>
@@ -4944,7 +4970,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R114" s="44"/>
+      <c r="R114" s="44">
+        <v>2</v>
+      </c>
       <c r="S114" s="28" t="s">
         <v>65</v>
       </c>
@@ -5017,7 +5045,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R115" s="5"/>
+      <c r="R115" s="5">
+        <v>3</v>
+      </c>
       <c r="S115" s="28" t="s">
         <v>66</v>
       </c>
@@ -5090,7 +5120,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R116" s="44"/>
+      <c r="R116" s="44">
+        <v>2</v>
+      </c>
       <c r="S116" s="28" t="s">
         <v>67</v>
       </c>
@@ -5186,7 +5218,7 @@
       </c>
       <c r="E118" s="44">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118" s="44">
         <f t="shared" si="15"/>
@@ -5234,16 +5266,18 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R118" s="44"/>
+        <v>5</v>
+      </c>
+      <c r="R118" s="44" t="s">
+        <v>69</v>
+      </c>
       <c r="S118" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" s="54">
         <f t="shared" ref="B119:P119" si="16">COUNTIF(B3:B102,$A$119)</f>
@@ -5311,7 +5345,7 @@
       </c>
       <c r="R119" s="5"/>
       <c r="S119" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -5382,14 +5416,16 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R120" s="44"/>
+      <c r="R120" s="44">
+        <v>3</v>
+      </c>
       <c r="S120" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B121" s="5">
         <f t="shared" ref="B121:P121" si="18">COUNTIF(B3:B102,$A$121)</f>
@@ -5460,7 +5496,7 @@
     </row>
     <row r="122" ht="14.25" spans="1:19">
       <c r="A122" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B122" s="55">
         <f>SUM(B106:B121)</f>
@@ -5476,7 +5512,7 @@
       </c>
       <c r="E122" s="55">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" s="55">
         <f t="shared" si="19"/>
@@ -5524,7 +5560,7 @@
       </c>
       <c r="Q122" s="57">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5545,7 +5581,7 @@
   <sheetPr/>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
@@ -5553,7 +5589,7 @@
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5576,7 +5612,7 @@
     </row>
     <row r="2" ht="31.5" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5645,13 +5681,13 @@
         <v>16</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5665,13 +5701,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>30</v>
@@ -5683,7 +5719,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>30</v>
@@ -5702,7 +5738,7 @@
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" s="5">
         <v>132909991</v>
@@ -5714,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -5741,7 +5777,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>30</v>
@@ -5777,7 +5813,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>22</v>
@@ -5792,19 +5828,19 @@
         <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
@@ -5840,7 +5876,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
@@ -5849,10 +5885,10 @@
         <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>30</v>
@@ -5861,7 +5897,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
@@ -5896,7 +5932,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -5911,7 +5947,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>24</v>
@@ -5946,22 +5982,22 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>29</v>
@@ -5970,7 +6006,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>22</v>
@@ -6008,10 +6044,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>22</v>
@@ -6020,22 +6056,22 @@
         <v>30</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>22</v>
@@ -6058,7 +6094,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>22</v>
@@ -6089,7 +6125,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>18</v>
@@ -6118,7 +6154,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -6134,7 +6170,7 @@
         <v>29</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>29</v>
@@ -6172,10 +6208,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
@@ -6203,13 +6239,13 @@
         <v>23</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
@@ -6242,10 +6278,10 @@
         <v>23</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>32</v>
@@ -6296,25 +6332,25 @@
         <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>19</v>
@@ -6327,7 +6363,7 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6367,13 +6403,13 @@
         <v>22</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>19</v>
@@ -6415,13 +6451,13 @@
         <v>29</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>21</v>
@@ -6440,7 +6476,7 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6472,7 +6508,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -6493,7 +6529,7 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6530,7 +6566,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>18</v>
@@ -6563,20 +6599,20 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>21</v>
@@ -6614,7 +6650,7 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>22</v>
@@ -6625,14 +6661,14 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -6655,7 +6691,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>23</v>
@@ -6738,14 +6774,14 @@
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="13"/>
@@ -6763,10 +6799,10 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>22</v>
@@ -6806,14 +6842,14 @@
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="14"/>
@@ -6846,7 +6882,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="14"/>
@@ -6862,17 +6898,17 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -6895,7 +6931,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>18</v>
@@ -6916,10 +6952,10 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -6938,7 +6974,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>22</v>
@@ -6974,11 +7010,11 @@
         <v>24</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -7001,13 +7037,13 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
@@ -7126,7 +7162,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>22</v>
@@ -7155,7 +7191,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>30</v>
@@ -7209,7 +7245,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
@@ -7261,7 +7297,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -7405,7 +7441,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7415,7 +7451,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7465,13 +7501,13 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S46" s="28"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="19">
         <f t="shared" ref="B47:P47" si="2">COUNTIF(B4:B43,$A$47)</f>
@@ -7541,12 +7577,12 @@
         <v>2</v>
       </c>
       <c r="S47" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="20">
         <f t="shared" ref="B48:P48" si="4">COUNTIF(B4:B43,$A$48)</f>
@@ -7616,12 +7652,12 @@
         <v>3</v>
       </c>
       <c r="S48" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="19">
         <f t="shared" ref="B49:P49" si="5">COUNTIF(B4:B43,$A$49)</f>
@@ -7691,12 +7727,12 @@
         <v>6</v>
       </c>
       <c r="S49" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="20">
         <f t="shared" ref="B50:P50" si="6">COUNTIF(B4:B43,$A$50)</f>
@@ -7766,12 +7802,12 @@
         <v>6</v>
       </c>
       <c r="S50" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="19">
         <f t="shared" ref="B51:P51" si="7">COUNTIF(B4:B43,$A$51)</f>
@@ -7838,15 +7874,15 @@
         <v>1</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" s="20">
         <f t="shared" ref="B52:P52" si="8">COUNTIF(B4:B43,$A$52)</f>
@@ -7913,15 +7949,15 @@
         <v>2</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S52" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="19">
         <f t="shared" ref="B53:P53" si="9">COUNTIF(B4:B43,$A$53)</f>
@@ -7988,15 +8024,15 @@
         <v>8</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S53" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" s="20">
         <f t="shared" ref="B54:P54" si="10">COUNTIF(B4:B43,$A$54)</f>
@@ -8063,15 +8099,15 @@
         <v>2</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S54" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="19">
         <f t="shared" ref="B55:P55" si="11">COUNTIF(B4:B43,$A$55)</f>
@@ -8138,15 +8174,15 @@
         <v>8</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S55" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="20">
         <f t="shared" ref="B56:P56" si="12">COUNTIF(B4:B43,$A$56)</f>
@@ -8213,15 +8249,15 @@
         <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S56" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="19">
         <f t="shared" ref="B57:P57" si="13">COUNTIF(B4:B43,$A$57)</f>
@@ -8288,15 +8324,15 @@
         <v>3</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S57" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="20">
         <f t="shared" ref="B58:P58" si="14">COUNTIF(B4:B43,$A$58)</f>
@@ -8363,15 +8399,15 @@
         <v>5</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S58" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="19">
         <f t="shared" ref="B59:P59" si="15">COUNTIF(B4:B43,$A$59)</f>
@@ -8441,12 +8477,12 @@
         <v>4</v>
       </c>
       <c r="S59" s="45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="21">
         <f t="shared" ref="B60:P60" si="16">COUNTIF(B4:B43,$A$60)</f>
@@ -8516,12 +8552,12 @@
         <v>5</v>
       </c>
       <c r="S60" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="19">
         <f t="shared" ref="B61:P61" si="17">COUNTIF(B4:B43,$A$61)</f>
@@ -8591,12 +8627,12 @@
         <v>2</v>
       </c>
       <c r="S61" s="45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="20">
         <f t="shared" ref="B62:P62" si="18">COUNTIF(B4:B43,$A$62)</f>
@@ -8663,15 +8699,15 @@
         <v>7</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="S62" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:19">
       <c r="A63" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="23">
         <f>SUM(B47:B62)</f>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -1617,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="R119" sqref="R119"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1855,11 +1855,11 @@
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0256410256410256</v>
+        <v>0.0638297872340425</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1966,11 +1966,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
+        <v>0.382978723404255</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.128205128205128</v>
+        <v>0.106382978723404</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0512820512820513</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0512820512820513</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.179487179487179</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0256410256410256</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.205128205128205</v>
+        <v>0.170212765957447</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2282,7 +2282,9 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2307,7 +2309,9 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2332,7 +2336,9 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2357,7 +2363,9 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2382,7 +2390,9 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2407,7 +2417,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2432,7 +2444,9 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2455,7 +2469,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2498,7 +2514,7 @@
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>625</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2626,7 +2642,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*30-40)</f>
-        <v>0.251851851851852</v>
+        <v>0.287671232876712</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4283,7 +4299,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -4307,7 +4323,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R105" s="5" t="s">
         <v>60</v>
@@ -5581,8 +5597,8 @@
   <sheetPr/>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48:Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>DC韩服(2018年5月)护士raid</t>
   </si>
@@ -77,6 +77,9 @@
     <t>温泉皮</t>
   </si>
   <si>
+    <t>4b</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
@@ -86,7 +89,7 @@
     <t>4x</t>
   </si>
   <si>
-    <t>4b</t>
+    <t>皮！</t>
   </si>
   <si>
     <t>币</t>
@@ -104,6 +107,9 @@
     <t>男仆</t>
   </si>
   <si>
+    <t>5a</t>
+  </si>
+  <si>
     <t>4x肥</t>
   </si>
   <si>
@@ -116,18 +122,12 @@
     <t>5x肥</t>
   </si>
   <si>
+    <t>萨拉丁</t>
+  </si>
+  <si>
     <t>护士</t>
   </si>
   <si>
-    <t>萨拉丁</t>
-  </si>
-  <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>皮！</t>
-  </si>
-  <si>
     <t>5x</t>
   </si>
   <si>
@@ -149,6 +149,9 @@
     <t>血石直接写血石，数量自己算</t>
   </si>
   <si>
+    <t>熊妹</t>
+  </si>
+  <si>
     <t>5x成本</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
     <t>草莓</t>
   </si>
   <si>
+    <t>6+</t>
+  </si>
+  <si>
     <t>摩根</t>
   </si>
   <si>
@@ -222,15 +228,6 @@
   </si>
   <si>
     <t>骷髅</t>
-  </si>
-  <si>
-    <t>6+</t>
-  </si>
-  <si>
-    <t>熊妹</t>
-  </si>
-  <si>
-    <t>可改</t>
   </si>
   <si>
     <t>每日5*</t>
@@ -394,15 +391,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,9 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,29 +442,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,11 +464,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,28 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +505,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,13 +627,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,31 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,61 +735,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,6 +772,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +871,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -885,15 +891,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,11 +927,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,9 +960,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,16 +988,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,119 +1006,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,6 +1289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1617,13 +1617,13 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:19">
+    <row r="1" ht="30" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1715,9 @@
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1727,7 +1729,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1738,15 +1740,17 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1767,15 +1771,17 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1796,15 +1802,17 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1816,13 +1824,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1831,15 +1839,17 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1851,7 +1861,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
@@ -1859,7 +1869,7 @@
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0638297872340425</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1874,9 +1884,11 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1888,15 +1900,15 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1905,15 +1917,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1925,7 +1939,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
@@ -1942,15 +1956,17 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1962,15 +1978,15 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.382978723404255</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1979,15 +1995,17 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1999,15 +2017,15 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.106382978723404</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2016,15 +2034,17 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2036,15 +2056,15 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2056,9 +2076,11 @@
         <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2070,15 +2092,15 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2086,14 +2108,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2108,11 +2131,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.148936170212766</v>
+        <v>0.146666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2121,12 +2144,15 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2137,15 +2163,15 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2154,12 +2180,12 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2174,11 +2200,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2187,12 +2213,12 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2203,15 +2229,15 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0133333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2220,12 +2246,12 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2240,11 +2266,11 @@
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.170212765957447</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2253,12 +2279,12 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2281,12 +2307,12 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2312,8 +2338,9 @@
       <c r="E21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2337,9 +2364,11 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2364,9 +2393,11 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2391,9 +2422,11 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2418,9 +2451,11 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2445,9 +2480,11 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2470,9 +2507,11 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2495,7 +2534,9 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2507,14 +2548,14 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>750</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2525,7 +2566,9 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2537,7 +2580,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2562,10 +2605,10 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2635,14 +2678,14 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" s="37">
-        <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*30-40)</f>
-        <v>0.287671232876712</v>
+        <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
+        <v>0.25390625</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2665,7 +2708,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2690,7 +2733,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2715,7 +2758,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2740,7 +2783,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2765,7 +2808,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2790,7 +2833,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -4258,7 +4301,9 @@
       <c r="E103" s="13">
         <v>3</v>
       </c>
-      <c r="F103" s="13"/>
+      <c r="F103" s="13">
+        <v>14</v>
+      </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
@@ -4269,20 +4314,23 @@
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
+      <c r="Q103" s="13">
+        <f>SUM(B103:P103)</f>
+        <v>33</v>
+      </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4295,17 +4343,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4323,10 +4371,10 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S105" s="28"/>
     </row>
@@ -4470,7 +4518,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4540,12 +4588,12 @@
         <v>5</v>
       </c>
       <c r="S108" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4615,12 +4663,12 @@
         <v>1</v>
       </c>
       <c r="S109" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
@@ -4640,7 +4688,7 @@
       </c>
       <c r="F110" s="44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="44">
         <f t="shared" si="7"/>
@@ -4684,18 +4732,18 @@
       </c>
       <c r="Q110" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R110" s="44">
-        <v>6</v>
-      </c>
-      <c r="S110" s="28" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="R110" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S110" s="57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -4764,13 +4812,13 @@
       <c r="R111" s="5">
         <v>6</v>
       </c>
-      <c r="S111" s="28" t="s">
-        <v>63</v>
+      <c r="S111" s="57" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -4840,12 +4888,12 @@
         <v>4</v>
       </c>
       <c r="S112" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" ref="B113:P113" si="10">COUNTIF(B3:B102,$A$113)</f>
@@ -4915,12 +4963,12 @@
         <v>1</v>
       </c>
       <c r="S113" s="28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B114" s="44">
         <f t="shared" ref="B114:P114" si="11">COUNTIF(B3:B102,$A$114)</f>
@@ -4990,12 +5038,12 @@
         <v>2</v>
       </c>
       <c r="S114" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" ref="B115:P115" si="12">COUNTIF(B3:B102,$A$115)</f>
@@ -5065,12 +5113,12 @@
         <v>3</v>
       </c>
       <c r="S115" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B116" s="44">
         <f t="shared" ref="B116:P116" si="13">COUNTIF(B3:B102,$A$116)</f>
@@ -5140,12 +5188,12 @@
         <v>2</v>
       </c>
       <c r="S116" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" ref="B117:P117" si="14">COUNTIF(B3:B102,$A$117)</f>
@@ -5213,12 +5261,12 @@
       </c>
       <c r="R117" s="5"/>
       <c r="S117" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B118" s="44">
         <f t="shared" ref="B118:P118" si="15">COUNTIF(B3:B102,$A$118)</f>
@@ -5285,15 +5333,15 @@
         <v>5</v>
       </c>
       <c r="R118" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="S118" s="28" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="S118" s="57" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B119" s="54">
         <f t="shared" ref="B119:P119" si="16">COUNTIF(B3:B102,$A$119)</f>
@@ -5313,7 +5361,7 @@
       </c>
       <c r="F119" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="54">
         <f t="shared" si="16"/>
@@ -5357,16 +5405,16 @@
       </c>
       <c r="Q119" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" s="5"/>
       <c r="S119" s="28" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B120" s="44">
         <f t="shared" ref="B120:P120" si="17">COUNTIF(B3:B102,$A$120)</f>
@@ -5436,13 +5484,11 @@
         <v>3</v>
       </c>
       <c r="S120" s="28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:19">
-      <c r="A121" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A121" s="4"/>
       <c r="B121" s="5">
         <f t="shared" ref="B121:P121" si="18">COUNTIF(B3:B102,$A$121)</f>
         <v>0</v>
@@ -5510,9 +5556,9 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="14.25" spans="1:19">
+    <row r="122" ht="15" spans="1:19">
       <c r="A122" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B122" s="55">
         <f>SUM(B106:B121)</f>
@@ -5532,7 +5578,7 @@
       </c>
       <c r="F122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122" s="55">
         <f t="shared" si="19"/>
@@ -5574,9 +5620,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q122" s="57">
+      <c r="Q122" s="58">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5601,11 +5647,11 @@
       <selection activeCell="Q48" sqref="Q48:Q62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5626,9 +5672,9 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="31.5" spans="1:19">
+    <row r="2" ht="30" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5697,13 +5743,13 @@
         <v>16</v>
       </c>
       <c r="Q3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5711,34 +5757,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
@@ -5747,14 +5793,14 @@
         <v>18</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R4" s="5">
         <v>132909991</v>
@@ -5766,13 +5812,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>19</v>
@@ -5781,31 +5827,31 @@
         <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
@@ -5820,53 +5866,53 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5874,50 +5920,50 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ref="R7:R14" si="0">COUNTIF($B$4:$P$43,Q7)</f>
@@ -5933,50 +5979,50 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L8" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -5992,50 +6038,50 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
@@ -6051,50 +6097,50 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
@@ -6110,38 +6156,38 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>18</v>
@@ -6151,7 +6197,7 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="0"/>
@@ -6167,48 +6213,48 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
@@ -6224,48 +6270,48 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6284,41 +6330,41 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
@@ -6341,32 +6387,32 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>19</v>
@@ -6375,11 +6421,11 @@
         <v>18</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6394,38 +6440,38 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>19</v>
@@ -6451,48 +6497,48 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6508,40 +6554,40 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
@@ -6561,38 +6607,38 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -6607,31 +6653,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -6648,10 +6694,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -6659,32 +6705,32 @@
         <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -6696,34 +6742,34 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="13"/>
@@ -6738,25 +6784,25 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -6775,29 +6821,29 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="13"/>
@@ -6810,29 +6856,29 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="13"/>
@@ -6851,21 +6897,21 @@
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="14"/>
@@ -6881,24 +6927,24 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="14"/>
@@ -6914,24 +6960,24 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="13"/>
@@ -6947,31 +6993,31 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -6987,17 +7033,17 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -7020,24 +7066,24 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -7053,17 +7099,17 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7089,21 +7135,21 @@
         <v>19</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="13"/>
@@ -7123,7 +7169,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -7132,7 +7178,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13"/>
@@ -7149,10 +7195,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -7161,7 +7207,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13"/>
@@ -7178,10 +7224,10 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -7207,10 +7253,10 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7234,10 +7280,10 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7261,7 +7307,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
@@ -7288,7 +7334,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7313,7 +7359,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -7337,7 +7383,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>18</v>
@@ -7364,10 +7410,10 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -7457,7 +7503,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7467,7 +7513,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7517,13 +7563,13 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S46" s="28"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="19">
         <f t="shared" ref="B47:P47" si="2">COUNTIF(B4:B43,$A$47)</f>
@@ -7593,12 +7639,12 @@
         <v>2</v>
       </c>
       <c r="S47" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="20">
         <f t="shared" ref="B48:P48" si="4">COUNTIF(B4:B43,$A$48)</f>
@@ -7668,12 +7714,12 @@
         <v>3</v>
       </c>
       <c r="S48" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="19">
         <f t="shared" ref="B49:P49" si="5">COUNTIF(B4:B43,$A$49)</f>
@@ -7743,12 +7789,12 @@
         <v>6</v>
       </c>
       <c r="S49" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="20">
         <f t="shared" ref="B50:P50" si="6">COUNTIF(B4:B43,$A$50)</f>
@@ -7818,12 +7864,12 @@
         <v>6</v>
       </c>
       <c r="S50" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="19">
         <f t="shared" ref="B51:P51" si="7">COUNTIF(B4:B43,$A$51)</f>
@@ -7890,15 +7936,15 @@
         <v>1</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="20">
         <f t="shared" ref="B52:P52" si="8">COUNTIF(B4:B43,$A$52)</f>
@@ -7965,15 +8011,15 @@
         <v>2</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S52" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="19">
         <f t="shared" ref="B53:P53" si="9">COUNTIF(B4:B43,$A$53)</f>
@@ -8040,15 +8086,15 @@
         <v>8</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S53" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="20">
         <f t="shared" ref="B54:P54" si="10">COUNTIF(B4:B43,$A$54)</f>
@@ -8115,15 +8161,15 @@
         <v>2</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S54" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="19">
         <f t="shared" ref="B55:P55" si="11">COUNTIF(B4:B43,$A$55)</f>
@@ -8190,15 +8236,15 @@
         <v>8</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S55" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="20">
         <f t="shared" ref="B56:P56" si="12">COUNTIF(B4:B43,$A$56)</f>
@@ -8265,15 +8311,15 @@
         <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S56" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="19">
         <f t="shared" ref="B57:P57" si="13">COUNTIF(B4:B43,$A$57)</f>
@@ -8340,15 +8386,15 @@
         <v>3</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S57" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="20">
         <f t="shared" ref="B58:P58" si="14">COUNTIF(B4:B43,$A$58)</f>
@@ -8415,15 +8461,15 @@
         <v>5</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S58" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="19">
         <f t="shared" ref="B59:P59" si="15">COUNTIF(B4:B43,$A$59)</f>
@@ -8493,12 +8539,12 @@
         <v>4</v>
       </c>
       <c r="S59" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" s="21">
         <f t="shared" ref="B60:P60" si="16">COUNTIF(B4:B43,$A$60)</f>
@@ -8568,12 +8614,12 @@
         <v>5</v>
       </c>
       <c r="S60" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="19">
         <f t="shared" ref="B61:P61" si="17">COUNTIF(B4:B43,$A$61)</f>
@@ -8643,12 +8689,12 @@
         <v>2</v>
       </c>
       <c r="S61" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="20">
         <f t="shared" ref="B62:P62" si="18">COUNTIF(B4:B43,$A$62)</f>
@@ -8715,15 +8761,15 @@
         <v>7</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S62" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:19">
       <c r="A63" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="23">
         <f>SUM(B47:B62)</f>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -1618,7 +1618,7 @@
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="Q105" sqref="Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.25390625</v>
+        <v>0.243445692883895</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4371,7 +4371,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R105" s="5" t="s">
         <v>61</v>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -397,22 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,23 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +436,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,8 +481,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +498,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,9 +520,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,31 +627,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,103 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +711,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,11 +871,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,32 +940,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,30 +954,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,130 +988,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1618,12 +1618,12 @@
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q105" sqref="Q105"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="30" spans="1:19">
+    <row r="1" ht="31.5" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.04</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1904,11 +1904,11 @@
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.0266666666666667</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.316455696202532</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.164556962025316</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2060,11 +2060,11 @@
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.0506329113924051</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.146666666666667</v>
+        <v>0.139240506329114</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.0133333333333333</v>
+        <v>0.0126582278481013</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.133333333333333</v>
+        <v>0.126582278481013</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2593,7 +2593,9 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2620,7 +2622,9 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2643,7 +2647,9 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2666,7 +2672,9 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2685,7 +2693,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.243445692883895</v>
+        <v>0.258426966292135</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4347,7 +4355,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -5556,7 +5564,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="15" spans="1:19">
+    <row r="122" ht="14.25" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5647,7 +5655,7 @@
       <selection activeCell="Q48" sqref="Q48:Q62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5672,7 +5680,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:19">
+    <row r="2" ht="31.5" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -8767,7 +8775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:19">
+    <row r="63" ht="14.25" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -80,6 +80,9 @@
     <t>4b</t>
   </si>
   <si>
+    <t>币</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
@@ -92,7 +95,7 @@
     <t>皮！</t>
   </si>
   <si>
-    <t>币</t>
+    <t>5a</t>
   </si>
   <si>
     <t>种类</t>
@@ -107,13 +110,10 @@
     <t>男仆</t>
   </si>
   <si>
-    <t>5a</t>
+    <t>5b</t>
   </si>
   <si>
     <t>4x肥</t>
-  </si>
-  <si>
-    <t>5b</t>
   </si>
   <si>
     <t>提箱</t>
@@ -337,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -391,6 +391,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -398,28 +405,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -435,10 +420,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,11 +451,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,59 +529,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +645,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,25 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,13 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,55 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,17 +871,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,36 +887,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,6 +915,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -957,17 +968,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +988,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,13 +1617,13 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:19">
+    <row r="1" ht="30" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1718,9 @@
       <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1729,7 +1731,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1740,18 +1742,20 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1774,15 +1778,17 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1808,12 +1814,14 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1824,13 +1832,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1839,18 +1847,20 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1861,15 +1871,15 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0379746835443038</v>
+        <v>0.0442477876106195</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1884,12 +1894,14 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1900,7 +1912,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
@@ -1908,7 +1920,7 @@
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.0379746835443038</v>
+        <v>0.0265486725663717</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1917,7 +1929,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
@@ -1928,7 +1940,9 @@
       <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1956,18 +1970,20 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1978,15 +1994,15 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.316455696202532</v>
+        <v>0.309734513274336</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1995,7 +2011,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
@@ -2006,7 +2022,9 @@
       <c r="F11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -2021,11 +2039,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.164556962025316</v>
+        <v>0.176991150442478</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2034,18 +2052,20 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -2056,15 +2076,15 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0506329113924051</v>
+        <v>0.0530973451327434</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2073,7 +2093,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>33</v>
@@ -2081,7 +2101,9 @@
       <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -2092,15 +2114,15 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0379746835443038</v>
+        <v>0.0619469026548673</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2115,7 +2137,10 @@
         <v>35</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2131,11 +2156,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.139240506329114</v>
+        <v>0.141592920353982</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2148,10 +2173,13 @@
         <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -2163,15 +2191,15 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.0379746835443038</v>
+        <v>0.0442477876106195</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2184,7 +2212,10 @@
         <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -2200,11 +2231,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0379746835443038</v>
+        <v>0.0353982300884956</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2217,7 +2248,10 @@
         <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -2229,7 +2263,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
@@ -2237,7 +2271,7 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.0126582278481013</v>
+        <v>0.00884955752212389</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2250,7 +2284,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2266,11 +2303,11 @@
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.126582278481013</v>
+        <v>0.0973451327433628</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2284,6 +2321,9 @@
       </c>
       <c r="F19" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2308,9 +2348,12 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="5"/>
@@ -2341,6 +2384,9 @@
       <c r="F21" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="G21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2364,12 +2410,14 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2393,12 +2441,14 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2422,12 +2472,14 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2451,12 +2503,14 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2480,12 +2534,14 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -2507,12 +2563,14 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2535,9 +2593,11 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2555,7 +2615,7 @@
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>1200</v>
+        <v>1636.36363636364</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2569,7 +2629,9 @@
       <c r="F29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -2594,9 +2656,11 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2623,9 +2687,11 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2650,7 +2716,9 @@
       <c r="F32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2673,9 +2741,11 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2693,7 +2763,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.258426966292135</v>
+        <v>0.266304347826087</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2705,7 +2775,9 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2730,7 +2802,9 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -2755,7 +2829,9 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4312,7 +4388,9 @@
       <c r="F103" s="13">
         <v>14</v>
       </c>
-      <c r="G103" s="13"/>
+      <c r="G103" s="13">
+        <v>19</v>
+      </c>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -4324,7 +4402,7 @@
       <c r="P103" s="13"/>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4355,7 +4433,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -4379,7 +4457,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R105" s="5" t="s">
         <v>61</v>
@@ -4676,7 +4754,7 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
@@ -4746,7 +4824,7 @@
         <v>64</v>
       </c>
       <c r="S110" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -5298,7 +5376,7 @@
       </c>
       <c r="G118" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="44">
         <f t="shared" si="15"/>
@@ -5338,7 +5416,7 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R118" s="44" t="s">
         <v>64</v>
@@ -5564,7 +5642,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="14.25" spans="1:19">
+    <row r="122" ht="15" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5590,7 +5668,7 @@
       </c>
       <c r="G122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="55">
         <f t="shared" si="19"/>
@@ -5630,7 +5708,7 @@
       </c>
       <c r="Q122" s="58">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5652,10 +5730,10 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48:Q62"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5680,7 +5758,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="31.5" spans="1:19">
+    <row r="2" ht="30" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -5765,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -5780,19 +5858,19 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
@@ -5801,10 +5879,10 @@
         <v>18</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
@@ -5823,10 +5901,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>19</v>
@@ -5838,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
@@ -5850,7 +5928,7 @@
         <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>20</v>
@@ -5859,7 +5937,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
@@ -5874,7 +5952,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -5886,16 +5964,16 @@
         <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>85</v>
@@ -5907,20 +5985,20 @@
         <v>87</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5934,10 +6012,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
@@ -5952,7 +6030,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>89</v>
@@ -5961,17 +6039,17 @@
         <v>90</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ref="R7:R14" si="0">COUNTIF($B$4:$P$43,Q7)</f>
@@ -5987,16 +6065,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>20</v>
@@ -6005,32 +6083,32 @@
         <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -6046,10 +6124,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -6058,7 +6136,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>83</v>
@@ -6070,7 +6148,7 @@
         <v>90</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>20</v>
@@ -6079,10 +6157,10 @@
         <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>18</v>
@@ -6108,7 +6186,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>34</v>
@@ -6120,10 +6198,10 @@
         <v>92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>88</v>
@@ -6144,11 +6222,11 @@
         <v>93</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
@@ -6167,26 +6245,26 @@
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>34</v>
@@ -6221,29 +6299,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>20</v>
@@ -6255,14 +6333,14 @@
         <v>20</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
@@ -6288,19 +6366,19 @@
         <v>19</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>19</v>
@@ -6309,7 +6387,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>20</v>
@@ -6319,7 +6397,7 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6338,11 +6416,11 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>20</v>
@@ -6357,13 +6435,13 @@
         <v>34</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
@@ -6372,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
@@ -6399,7 +6477,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>96</v>
@@ -6408,13 +6486,13 @@
         <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>92</v>
@@ -6429,11 +6507,11 @@
         <v>18</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6451,7 +6529,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
@@ -6461,19 +6539,19 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>86</v>
@@ -6518,35 +6596,35 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6565,37 +6643,37 @@
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
@@ -6615,21 +6693,21 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
@@ -6642,11 +6720,11 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -6664,7 +6742,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6672,7 +6750,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>91</v>
@@ -6685,7 +6763,7 @@
         <v>89</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -6702,10 +6780,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -6716,14 +6794,14 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
         <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>20</v>
@@ -6750,15 +6828,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>98</v>
@@ -6768,10 +6846,10 @@
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -6792,22 +6870,22 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>20</v>
@@ -6834,13 +6912,13 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
@@ -6864,7 +6942,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6872,21 +6950,21 @@
         <v>85</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="13"/>
@@ -6905,7 +6983,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>34</v>
@@ -6985,7 +7063,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="13"/>
@@ -7007,11 +7085,11 @@
         <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -7047,7 +7125,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
@@ -7074,10 +7152,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>83</v>
@@ -7091,7 +7169,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -7110,14 +7188,14 @@
         <v>89</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>92</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7143,14 +7221,14 @@
         <v>19</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -7177,7 +7255,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -7186,7 +7264,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13"/>
@@ -7203,10 +7281,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -7215,7 +7293,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13"/>
@@ -7235,7 +7313,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -7264,7 +7342,7 @@
         <v>102</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7291,7 +7369,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7342,7 +7420,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7391,7 +7469,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>18</v>
@@ -7418,10 +7496,10 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -8775,7 +8853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:19">
+    <row r="63" ht="15" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -83,13 +83,13 @@
     <t>币</t>
   </si>
   <si>
+    <t>4x</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
     <t>4a</t>
-  </si>
-  <si>
-    <t>4x</t>
   </si>
   <si>
     <t>皮！</t>
@@ -1617,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1721,7 +1721,9 @@
       <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1731,7 +1733,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1742,13 +1744,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>25</v>
@@ -1756,7 +1758,9 @@
       <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1781,15 +1785,17 @@
         <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1814,15 +1820,17 @@
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1850,18 +1858,20 @@
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1875,11 +1885,11 @@
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0442477876106195</v>
+        <v>0.0578512396694215</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1894,7 +1904,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -1902,7 +1912,9 @@
       <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1920,7 +1932,7 @@
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.0265486725663717</v>
+        <v>0.0247933884297521</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1941,9 +1953,11 @@
         <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1970,10 +1984,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
@@ -1994,15 +2008,15 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.309734513274336</v>
+        <v>0.305785123966942</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2011,7 +2025,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>18</v>
@@ -2023,7 +2037,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -2039,11 +2053,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.176991150442478</v>
+        <v>0.173553719008264</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2052,13 +2066,13 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>32</v>
@@ -2076,15 +2090,15 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0530973451327434</v>
+        <v>0.0578512396694215</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2093,7 +2107,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>33</v>
@@ -2122,7 +2136,7 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0619469026548673</v>
+        <v>0.0578512396694215</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2140,7 +2154,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2160,7 +2174,7 @@
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.141592920353982</v>
+        <v>0.132231404958678</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2173,10 +2187,10 @@
         <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>21</v>
@@ -2195,11 +2209,11 @@
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.0442477876106195</v>
+        <v>0.0495867768595041</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2212,7 +2226,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>31</v>
@@ -2231,11 +2245,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0353982300884956</v>
+        <v>0.0413223140495868</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2248,7 +2262,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>18</v>
@@ -2271,7 +2285,7 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.00884955752212389</v>
+        <v>0.00826446280991736</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2287,7 +2301,7 @@
         <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2307,7 +2321,7 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0973451327433628</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2323,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2348,7 +2362,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>32</v>
@@ -2385,7 +2399,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2410,7 +2424,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>20</v>
@@ -2441,13 +2455,13 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2472,7 +2486,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>20</v>
@@ -2506,7 +2520,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>20</v>
@@ -2563,13 +2577,13 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2656,10 +2670,10 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2687,7 +2701,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>20</v>
@@ -2763,7 +2777,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.266304347826087</v>
+        <v>0.250620347394541</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2803,7 +2817,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2830,7 +2844,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2856,7 +2870,9 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -4433,7 +4449,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -5843,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -5864,7 +5880,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>80</v>
@@ -5879,7 +5895,7 @@
         <v>18</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>31</v>
@@ -5901,10 +5917,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>19</v>
@@ -5964,7 +5980,7 @@
         <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>32</v>
@@ -5973,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>85</v>
@@ -5985,7 +6001,7 @@
         <v>87</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>88</v>
@@ -6015,7 +6031,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
@@ -6042,7 +6058,7 @@
         <v>31</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>79</v>
@@ -6065,16 +6081,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>20</v>
@@ -6089,10 +6105,10 @@
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>25</v>
@@ -6101,7 +6117,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>20</v>
@@ -6157,10 +6173,10 @@
         <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>18</v>
@@ -6186,7 +6202,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>34</v>
@@ -6198,7 +6214,7 @@
         <v>92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>31</v>
@@ -6222,11 +6238,11 @@
         <v>93</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
@@ -6245,17 +6261,17 @@
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>31</v>
@@ -6264,7 +6280,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>34</v>
@@ -6299,7 +6315,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>80</v>
@@ -6312,7 +6328,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>32</v>
@@ -6333,14 +6349,14 @@
         <v>20</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
@@ -6366,19 +6382,19 @@
         <v>19</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>19</v>
@@ -6420,7 +6436,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>20</v>
@@ -6435,7 +6451,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>34</v>
@@ -6450,7 +6466,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
@@ -6486,13 +6502,13 @@
         <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>92</v>
@@ -6507,7 +6523,7 @@
         <v>18</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
@@ -6529,7 +6545,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="9" t="s">
@@ -6539,16 +6555,16 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>25</v>
@@ -6608,7 +6624,7 @@
         <v>86</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>21</v>
@@ -6617,10 +6633,10 @@
         <v>31</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
@@ -6650,17 +6666,17 @@
         <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>34</v>
@@ -6693,21 +6709,21 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
@@ -6750,7 +6766,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>91</v>
@@ -6763,7 +6779,7 @@
         <v>89</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -6780,10 +6796,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -6801,7 +6817,7 @@
         <v>89</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>20</v>
@@ -6828,10 +6844,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -6846,10 +6862,10 @@
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -6875,7 +6891,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>31</v>
@@ -6885,7 +6901,7 @@
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>20</v>
@@ -6912,7 +6928,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>20</v>
@@ -6942,7 +6958,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6953,18 +6969,18 @@
         <v>25</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="13"/>
@@ -7063,7 +7079,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="13"/>
@@ -7125,7 +7141,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
@@ -7152,7 +7168,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>21</v>
@@ -7195,7 +7211,7 @@
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7255,7 +7271,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -7264,7 +7280,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13"/>
@@ -7281,10 +7297,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -7293,7 +7309,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13"/>
@@ -7313,7 +7329,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -7369,7 +7385,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7469,7 +7485,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>18</v>
@@ -7499,7 +7515,7 @@
         <v>31</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -339,8 +339,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -391,13 +391,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -413,10 +406,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,9 +450,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,15 +465,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -483,29 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,16 +495,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +645,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,37 +717,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,85 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,30 +891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -926,6 +902,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +930,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -960,11 +954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +988,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,13 +1617,13 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="30" spans="1:19">
+    <row r="1" ht="31.5" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1885,11 +1885,11 @@
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0578512396694215</v>
+        <v>0.062992125984252</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.0247933884297521</v>
+        <v>0.031496062992126</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1998,7 +1998,9 @@
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2012,11 +2014,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.305785123966942</v>
+        <v>0.299212598425197</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2039,7 +2041,9 @@
       <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2057,7 +2061,7 @@
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.173553719008264</v>
+        <v>0.165354330708661</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2080,7 +2084,9 @@
       <c r="G12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2094,11 +2100,11 @@
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0578512396694215</v>
+        <v>0.062992125984252</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2118,7 +2124,9 @@
       <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -2136,7 +2144,7 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0578512396694215</v>
+        <v>0.0551181102362205</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2156,7 +2164,9 @@
       <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2170,11 +2180,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.132231404958678</v>
+        <v>0.133858267716535</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2195,7 +2205,9 @@
       <c r="G15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2213,7 +2225,7 @@
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.0495867768595041</v>
+        <v>0.047244094488189</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2245,11 +2257,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0413223140495868</v>
+        <v>0.047244094488189</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2285,7 +2297,7 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.00826446280991736</v>
+        <v>0.0078740157480315</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2321,7 +2333,7 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0909090909090909</v>
+        <v>0.0866141732283465</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2777,7 +2789,7 @@
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.250620347394541</v>
+        <v>0.265508684863524</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4407,7 +4419,9 @@
       <c r="G103" s="13">
         <v>19</v>
       </c>
-      <c r="H103" s="13"/>
+      <c r="H103" s="13">
+        <v>1</v>
+      </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
@@ -4418,7 +4432,7 @@
       <c r="P103" s="13"/>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4449,7 +4463,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -5658,7 +5672,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="15" spans="1:19">
+    <row r="122" ht="14.25" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5749,7 +5763,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5774,7 +5788,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:19">
+    <row r="2" ht="31.5" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -8869,7 +8883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:19">
+    <row r="63" ht="14.25" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -95,6 +95,9 @@
     <t>皮！</t>
   </si>
   <si>
+    <t>5b</t>
+  </si>
+  <si>
     <t>5a</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t>男仆</t>
-  </si>
-  <si>
-    <t>5b</t>
   </si>
   <si>
     <t>4x肥</t>
@@ -339,8 +339,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -397,24 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,9 +411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,27 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -472,16 +434,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,6 +459,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,17 +495,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,13 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +639,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +693,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,103 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,26 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -915,16 +895,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -935,6 +915,26 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,16 +954,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -976,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,130 +988,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1617,13 +1617,13 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:19">
+    <row r="1" ht="30" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1724,9 @@
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1761,7 +1763,9 @@
       <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -1791,12 +1795,14 @@
         <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1829,9 +1835,11 @@
         <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1840,13 +1848,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1855,7 +1863,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -1864,7 +1872,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>22</v>
@@ -1872,7 +1880,9 @@
       <c r="H7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1885,11 +1895,11 @@
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.062992125984252</v>
+        <v>0.0633802816901408</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1907,15 +1917,17 @@
         <v>22</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1932,7 +1944,7 @@
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.031496062992126</v>
+        <v>0.028169014084507</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1941,7 +1953,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
@@ -1958,7 +1970,9 @@
       <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1990,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -1998,10 +2012,12 @@
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2014,11 +2030,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.299212598425197</v>
+        <v>0.295774647887324</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2042,9 +2058,11 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -2057,11 +2075,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.165354330708661</v>
+        <v>0.176056338028169</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2082,12 +2100,14 @@
         <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2104,7 +2124,7 @@
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.062992125984252</v>
+        <v>0.0563380281690141</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2125,9 +2145,11 @@
         <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2136,15 +2158,15 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0551181102362205</v>
+        <v>0.0633802816901408</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2159,15 +2181,17 @@
         <v>35</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2180,11 +2204,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.133858267716535</v>
+        <v>0.133802816901408</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2205,10 +2229,12 @@
       <c r="G15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="H15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2217,7 +2243,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
@@ -2225,7 +2251,7 @@
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.047244094488189</v>
+        <v>0.0422535211267606</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2241,10 +2267,14 @@
         <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2257,11 +2287,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.047244094488189</v>
+        <v>0.0563380281690141</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2279,7 +2309,6 @@
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -2297,7 +2326,7 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.0078740157480315</v>
+        <v>0.00704225352112676</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2310,12 +2339,11 @@
         <v>18</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2333,7 +2361,7 @@
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0866141732283465</v>
+        <v>0.0774647887323944</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2351,7 +2379,6 @@
       <c r="G19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -2380,9 +2407,8 @@
         <v>32</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>26</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2413,7 +2439,6 @@
       <c r="G21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2444,7 +2469,6 @@
       <c r="G22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2619,10 +2643,10 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2641,7 +2665,7 @@
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>1636.36363636364</v>
+        <v>1727.27272727273</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2788,8 +2812,8 @@
         <v>51</v>
       </c>
       <c r="S33" s="37">
-        <f>(R104-(COUNTA(B3:P3)-3+1)*5)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.265508684863524</v>
+        <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
+        <v>0.258351893095768</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4422,7 +4446,9 @@
       <c r="H103" s="13">
         <v>1</v>
       </c>
-      <c r="I103" s="13"/>
+      <c r="I103" s="13">
+        <v>2</v>
+      </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
@@ -4432,7 +4458,7 @@
       <c r="P103" s="13"/>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4463,7 +4489,7 @@
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="S104" s="41"/>
     </row>
@@ -4487,7 +4513,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R105" s="5" t="s">
         <v>61</v>
@@ -4784,7 +4810,7 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
@@ -4854,7 +4880,7 @@
         <v>64</v>
       </c>
       <c r="S110" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -5672,7 +5698,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="14.25" spans="1:19">
+    <row r="122" ht="15" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>71</v>
       </c>
@@ -5763,7 +5789,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -5788,7 +5814,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="31.5" spans="1:19">
+    <row r="2" ht="30" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -5888,7 +5914,7 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>32</v>
@@ -5900,7 +5926,7 @@
         <v>80</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
@@ -5912,7 +5938,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
@@ -5946,7 +5972,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
@@ -5958,7 +5984,7 @@
         <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>20</v>
@@ -5982,7 +6008,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6022,13 +6048,13 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6042,7 +6068,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>22</v>
@@ -6060,7 +6086,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>89</v>
@@ -6069,7 +6095,7 @@
         <v>90</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>22</v>
@@ -6113,7 +6139,7 @@
         <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
@@ -6154,10 +6180,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -6231,7 +6257,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>88</v>
@@ -6288,7 +6314,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>19</v>
@@ -6336,7 +6362,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
@@ -6427,7 +6453,7 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6446,7 +6472,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -6541,7 +6567,7 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R15" s="5">
         <v>17</v>
@@ -6644,7 +6670,7 @@
         <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>22</v>
@@ -6673,7 +6699,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
@@ -6696,14 +6722,14 @@
         <v>34</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
@@ -6750,11 +6776,11 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -6824,7 +6850,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
@@ -6866,7 +6892,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>98</v>
@@ -6908,7 +6934,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>20</v>
@@ -6948,7 +6974,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
@@ -7218,7 +7244,7 @@
         <v>89</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>92</v>
@@ -7258,7 +7284,7 @@
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -7372,7 +7398,7 @@
         <v>102</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7450,7 +7476,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7526,7 +7552,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>24</v>
@@ -8883,7 +8909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:19">
+    <row r="63" ht="15" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>71</v>
       </c>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -122,9 +122,15 @@
     <t>5x肥</t>
   </si>
   <si>
+    <t>熊妹</t>
+  </si>
+  <si>
     <t>萨拉丁</t>
   </si>
   <si>
+    <t>摩根</t>
+  </si>
+  <si>
     <t>护士</t>
   </si>
   <si>
@@ -149,9 +155,6 @@
     <t>血石直接写血石，数量自己算</t>
   </si>
   <si>
-    <t>熊妹</t>
-  </si>
-  <si>
     <t>5x成本</t>
   </si>
   <si>
@@ -210,9 +213,6 @@
   </si>
   <si>
     <t>6+</t>
-  </si>
-  <si>
-    <t>摩根</t>
   </si>
   <si>
     <t>南瓜</t>
@@ -337,8 +337,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -390,31 +390,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,7 +453,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +498,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,61 +529,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +627,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,43 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,91 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,30 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -906,26 +882,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +910,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -968,6 +948,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +988,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q105" sqref="Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1727,7 +1727,9 @@
       <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1766,7 +1768,9 @@
       <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1803,7 +1807,9 @@
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1840,7 +1846,9 @@
       <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1883,7 +1891,9 @@
       <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1899,7 +1909,7 @@
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0633802816901408</v>
+        <v>0.0584415584415584</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1928,7 +1938,9 @@
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1944,7 +1956,7 @@
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.028169014084507</v>
+        <v>0.025974025974026</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1973,7 +1985,9 @@
       <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -2018,7 +2032,9 @@
       <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -2030,11 +2046,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.295774647887324</v>
+        <v>0.279220779220779</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2063,7 +2079,9 @@
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -2075,11 +2093,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.176056338028169</v>
+        <v>0.188311688311688</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2108,7 +2126,9 @@
       <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2120,11 +2140,11 @@
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0563380281690141</v>
+        <v>0.0584415584415584</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2150,7 +2170,9 @@
       <c r="I13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2166,7 +2188,7 @@
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0633802816901408</v>
+        <v>0.0584415584415584</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2178,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>27</v>
@@ -2192,7 +2214,9 @@
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -2204,11 +2228,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.133802816901408</v>
+        <v>0.136363636363636</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2218,7 +2242,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>24</v>
@@ -2251,7 +2275,7 @@
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.0422535211267606</v>
+        <v>0.038961038961039</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2291,7 +2315,7 @@
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0563380281690141</v>
+        <v>0.051948051948052</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2326,7 +2350,7 @@
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.00704225352112676</v>
+        <v>0.00649350649350649</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2353,15 +2377,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0774647887323944</v>
+        <v>0.0974025974025974</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2418,7 +2442,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2448,7 +2472,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2478,7 +2502,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2509,7 +2533,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2540,7 +2564,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2571,7 +2595,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2587,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>18</v>
@@ -2658,14 +2682,14 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>1727.27272727273</v>
+        <v>1533.33333333333</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2692,7 +2716,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2721,10 +2745,10 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2806,14 +2830,14 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S33" s="37">
-        <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*35-40)</f>
-        <v>0.258351893095768</v>
+        <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*33-40)</f>
+        <v>0.23921568627451</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2838,7 +2862,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2865,7 +2889,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2892,7 +2916,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2919,7 +2943,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2944,7 +2968,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2969,7 +2993,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -4449,7 +4473,9 @@
       <c r="I103" s="13">
         <v>2</v>
       </c>
-      <c r="J103" s="13"/>
+      <c r="J103" s="13">
+        <v>6</v>
+      </c>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
@@ -4458,7 +4484,7 @@
       <c r="P103" s="13"/>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4466,13 +4492,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4485,17 +4511,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4513,10 +4539,10 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S105" s="28"/>
     </row>
@@ -4660,7 +4686,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4730,12 +4756,12 @@
         <v>5</v>
       </c>
       <c r="S108" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4805,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="S109" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -4846,7 +4872,7 @@
       </c>
       <c r="J110" s="44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="44">
         <f t="shared" si="7"/>
@@ -4874,10 +4900,10 @@
       </c>
       <c r="Q110" s="56">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R110" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S110" s="57" t="s">
         <v>31</v>
@@ -4885,7 +4911,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -4921,7 +4947,7 @@
       </c>
       <c r="J111" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="5">
         <f t="shared" si="8"/>
@@ -4949,18 +4975,18 @@
       </c>
       <c r="Q111" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R111" s="5">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="S111" s="57" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -5030,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="S112" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -5401,7 +5427,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R117" s="5"/>
+      <c r="R117" s="5">
+        <v>2</v>
+      </c>
       <c r="S117" s="28" t="s">
         <v>70</v>
       </c>
@@ -5444,7 +5472,7 @@
       </c>
       <c r="J118" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="44">
         <f t="shared" si="15"/>
@@ -5472,10 +5500,10 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R118" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S118" s="57" t="s">
         <v>33</v>
@@ -5483,7 +5511,7 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B119" s="54">
         <f t="shared" ref="B119:P119" si="16">COUNTIF(B3:B102,$A$119)</f>
@@ -5519,7 +5547,7 @@
       </c>
       <c r="J119" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="54">
         <f t="shared" si="16"/>
@@ -5547,16 +5575,18 @@
       </c>
       <c r="Q119" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R119" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="R119" s="5">
+        <v>3</v>
+      </c>
       <c r="S119" s="28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B120" s="44">
         <f t="shared" ref="B120:P120" si="17">COUNTIF(B3:B102,$A$120)</f>
@@ -5626,7 +5656,7 @@
         <v>3</v>
       </c>
       <c r="S120" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -5736,7 +5766,7 @@
       </c>
       <c r="J122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K122" s="55">
         <f t="shared" si="19"/>
@@ -5764,7 +5794,7 @@
       </c>
       <c r="Q122" s="58">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5785,8 +5815,8 @@
   <sheetPr/>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showZeros="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6733,7 +6763,7 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6869,10 +6899,10 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -7156,10 +7186,10 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -7645,7 +7675,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7655,7 +7685,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7705,7 +7735,7 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S46" s="28"/>
     </row>
@@ -8078,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S51" s="46" t="s">
         <v>103</v>
@@ -8153,7 +8183,7 @@
         <v>2</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S52" s="46" t="s">
         <v>96</v>
@@ -8228,7 +8258,7 @@
         <v>8</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S53" s="46" t="s">
         <v>86</v>
@@ -8303,7 +8333,7 @@
         <v>2</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S54" s="46" t="s">
         <v>77</v>
@@ -8378,7 +8408,7 @@
         <v>8</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S55" s="46" t="s">
         <v>83</v>
@@ -8453,7 +8483,7 @@
         <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>92</v>
@@ -8528,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S57" s="46" t="s">
         <v>94</v>
@@ -8603,7 +8633,7 @@
         <v>5</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S58" s="46" t="s">
         <v>88</v>
@@ -8903,7 +8933,7 @@
         <v>7</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S62" s="46" t="s">
         <v>89</v>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="19065" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="鲸某人的凝视" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>DC韩服(2018年5月)护士raid</t>
   </si>
@@ -86,12 +86,12 @@
     <t>4x</t>
   </si>
   <si>
+    <t>4a</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
-    <t>4a</t>
-  </si>
-  <si>
     <t>皮！</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
     <t>5a</t>
   </si>
   <si>
+    <t>5x肥</t>
+  </si>
+  <si>
     <t>种类</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>提箱</t>
   </si>
   <si>
-    <t>5x肥</t>
-  </si>
-  <si>
     <t>熊妹</t>
   </si>
   <si>
@@ -134,6 +134,9 @@
     <t>护士</t>
   </si>
   <si>
+    <t>草莓</t>
+  </si>
+  <si>
     <t>5x</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
     <t>非常大约 raid打完才有参考价值</t>
   </si>
   <si>
+    <t>骷髅</t>
+  </si>
+  <si>
     <t>狗海豹！敲里mua！凸！</t>
   </si>
   <si>
@@ -206,12 +212,12 @@
     <t>加值</t>
   </si>
   <si>
+    <t>27334-?</t>
+  </si>
+  <si>
     <t>火兔子</t>
   </si>
   <si>
-    <t>草莓</t>
-  </si>
-  <si>
     <t>6+</t>
   </si>
   <si>
@@ -225,9 +231,6 @@
   </si>
   <si>
     <t>火奶</t>
-  </si>
-  <si>
-    <t>骷髅</t>
   </si>
   <si>
     <t>每日5*</t>
@@ -338,9 +341,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -390,6 +393,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -413,8 +423,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,9 +479,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,14 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,40 +515,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,14 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +630,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +684,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,91 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +899,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -906,6 +924,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,21 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -957,17 +971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,13 +1620,16 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q105" sqref="Q105"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G94" workbookViewId="0">
+      <selection activeCell="S105" sqref="S105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="19" max="19" width="10.375"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:19">
+    <row r="1" ht="31.5" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1730,14 +1736,18 @@
       <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1748,7 +1758,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
@@ -1771,8 +1781,12 @@
       <c r="J4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1810,8 +1824,12 @@
       <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1849,20 +1867,24 @@
       <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1871,7 +1893,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -1880,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>22</v>
@@ -1892,10 +1914,14 @@
         <v>22</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1905,11 +1931,11 @@
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0584415584415584</v>
+        <v>0.0692640692640693</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1941,22 +1967,26 @@
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.025974025974026</v>
+        <v>0.0346320346320346</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1968,10 +1998,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>18</v>
@@ -1986,24 +2016,28 @@
         <v>18</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.00865800865800866</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2033,10 +2067,14 @@
         <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -2046,11 +2084,11 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.279220779220779</v>
+        <v>0.229437229437229</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2074,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -2082,8 +2120,12 @@
       <c r="J11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2093,11 +2135,11 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.188311688311688</v>
+        <v>0.186147186147186</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2115,7 +2157,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>26</v>
@@ -2129,22 +2171,26 @@
       <c r="J12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0584415584415584</v>
+        <v>0.0606060606060606</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2156,7 +2202,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>18</v>
@@ -2165,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>21</v>
@@ -2173,8 +2219,12 @@
       <c r="J13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2184,11 +2234,11 @@
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0584415584415584</v>
+        <v>0.0822510822510823</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2217,8 +2267,12 @@
       <c r="J14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -2228,11 +2282,11 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.136363636363636</v>
+        <v>0.134199134199134</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2245,7 +2299,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>22</v>
@@ -2259,9 +2313,15 @@
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2271,11 +2331,11 @@
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.038961038961039</v>
+        <v>0.051948051948052</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2285,7 +2345,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>22</v>
@@ -2299,9 +2359,15 @@
       <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="J16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2311,11 +2377,11 @@
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.051948051948052</v>
+        <v>0.0606060606060606</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2325,18 +2391,24 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="J17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -2346,11 +2418,11 @@
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.00649350649350649</v>
+        <v>0.00865800865800866</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2369,23 +2441,29 @@
         <v>22</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0974025974025974</v>
+        <v>0.0735930735930736</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2401,12 +2479,18 @@
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -2428,21 +2512,27 @@
         <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="J20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2464,15 +2554,21 @@
         <v>22</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2491,18 +2587,24 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="J22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2525,15 +2627,21 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2556,15 +2664,21 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2587,15 +2701,21 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2619,7 +2739,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -2648,7 +2770,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -2675,21 +2799,23 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>1533.33333333333</v>
+        <v>2176.47058823529</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2709,14 +2835,16 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2733,22 +2861,24 @@
         <v>22</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2761,7 +2891,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>20</v>
@@ -2769,7 +2899,9 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2796,7 +2928,9 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -2815,7 +2949,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>20</v>
@@ -2823,21 +2957,23 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*33-40)</f>
-        <v>0.23921568627451</v>
+        <v>0.256164383561644</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2855,14 +2991,16 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="K34" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -2882,14 +3020,16 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -2909,14 +3049,16 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -2931,19 +3073,21 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -2961,14 +3105,16 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -2986,14 +3132,16 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -3011,7 +3159,9 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3034,7 +3184,9 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3057,7 +3209,9 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3080,7 +3234,9 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="K43" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
@@ -3103,7 +3259,9 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
@@ -3126,7 +3284,9 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="K45" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -4474,17 +4634,21 @@
         <v>2</v>
       </c>
       <c r="J103" s="13">
-        <v>6</v>
-      </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="K103" s="13">
+        <v>16</v>
+      </c>
+      <c r="L103" s="13">
+        <v>9</v>
+      </c>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4492,13 +4656,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4511,17 +4675,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4539,12 +4703,14 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S105" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="S105" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="18"/>
@@ -4686,7 +4852,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4756,12 +4922,12 @@
         <v>5</v>
       </c>
       <c r="S108" s="28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4801,7 +4967,7 @@
       </c>
       <c r="K109" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="5">
         <f t="shared" si="6"/>
@@ -4825,18 +4991,18 @@
       </c>
       <c r="Q109" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S109" s="28" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B110" s="44">
         <f t="shared" ref="B110:P110" si="7">COUNTIF(B3:B102,$A$110)</f>
@@ -4903,10 +5069,10 @@
         <v>3</v>
       </c>
       <c r="R110" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S110" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -4978,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S111" s="57" t="s">
         <v>37</v>
@@ -5061,7 +5227,7 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" ref="B113:P113" si="10">COUNTIF(B3:B102,$A$113)</f>
@@ -5131,12 +5297,12 @@
         <v>1</v>
       </c>
       <c r="S113" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B114" s="44">
         <f t="shared" ref="B114:P114" si="11">COUNTIF(B3:B102,$A$114)</f>
@@ -5206,12 +5372,12 @@
         <v>2</v>
       </c>
       <c r="S114" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" ref="B115:P115" si="12">COUNTIF(B3:B102,$A$115)</f>
@@ -5281,12 +5447,12 @@
         <v>3</v>
       </c>
       <c r="S115" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B116" s="44">
         <f t="shared" ref="B116:P116" si="13">COUNTIF(B3:B102,$A$116)</f>
@@ -5356,12 +5522,12 @@
         <v>2</v>
       </c>
       <c r="S116" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" ref="B117:P117" si="14">COUNTIF(B3:B102,$A$117)</f>
@@ -5401,7 +5567,7 @@
       </c>
       <c r="K117" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="5">
         <f t="shared" si="14"/>
@@ -5425,18 +5591,18 @@
       </c>
       <c r="Q117" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S117" s="28" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B118" s="44">
         <f t="shared" ref="B118:P118" si="15">COUNTIF(B3:B102,$A$118)</f>
@@ -5503,10 +5669,10 @@
         <v>7</v>
       </c>
       <c r="R118" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S118" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -5728,9 +5894,9 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="15" spans="1:19">
+    <row r="122" ht="14.25" spans="1:19">
       <c r="A122" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B122" s="55">
         <f>SUM(B106:B121)</f>
@@ -5770,7 +5936,7 @@
       </c>
       <c r="K122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L122" s="55">
         <f t="shared" si="19"/>
@@ -5794,7 +5960,7 @@
       </c>
       <c r="Q122" s="58">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5819,11 +5985,11 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5844,9 +6010,9 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:19">
+    <row r="2" ht="31.5" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5915,13 +6081,13 @@
         <v>16</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5929,31 +6095,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>26</v>
@@ -5972,7 +6138,7 @@
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" s="5">
         <v>132909991</v>
@@ -5984,10 +6150,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>22</v>
@@ -6011,7 +6177,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>26</v>
@@ -6047,13 +6213,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
@@ -6062,29 +6228,29 @@
         <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6092,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -6110,7 +6276,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
@@ -6119,10 +6285,10 @@
         <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>26</v>
@@ -6131,7 +6297,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
@@ -6166,7 +6332,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
@@ -6178,7 +6344,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>25</v>
@@ -6187,14 +6353,14 @@
         <v>21</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -6216,31 +6382,31 @@
         <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>22</v>
@@ -6253,7 +6419,7 @@
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
@@ -6275,13 +6441,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>22</v>
@@ -6290,22 +6456,22 @@
         <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>22</v>
@@ -6328,7 +6494,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>22</v>
@@ -6353,13 +6519,13 @@
         <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>18</v>
@@ -6385,10 +6551,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -6398,16 +6564,16 @@
         <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>20</v>
@@ -6419,14 +6585,14 @@
         <v>20</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
@@ -6442,10 +6608,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
@@ -6461,7 +6627,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>22</v>
@@ -6479,7 +6645,7 @@
         <v>20</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
@@ -6512,22 +6678,22 @@
         <v>20</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
@@ -6563,28 +6729,28 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>19</v>
@@ -6612,7 +6778,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>22</v>
@@ -6631,7 +6797,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>22</v>
@@ -6640,10 +6806,10 @@
         <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>19</v>
@@ -6669,7 +6835,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -6682,19 +6848,19 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>21</v>
@@ -6726,7 +6892,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>26</v>
@@ -6736,7 +6902,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>22</v>
@@ -6749,7 +6915,7 @@
         <v>22</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>26</v>
@@ -6763,7 +6929,7 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6779,7 +6945,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
@@ -6800,7 +6966,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>18</v>
@@ -6833,23 +6999,23 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -6869,7 +7035,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -6884,7 +7050,7 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>22</v>
@@ -6895,14 +7061,14 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -6914,10 +7080,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -6925,7 +7091,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>20</v>
@@ -6956,7 +7122,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -7008,14 +7174,14 @@
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="13"/>
@@ -7033,7 +7199,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>25</v>
@@ -7050,7 +7216,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="13"/>
@@ -7069,21 +7235,21 @@
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="14"/>
@@ -7116,7 +7282,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="14"/>
@@ -7132,17 +7298,17 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -7165,17 +7331,17 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -7186,10 +7352,10 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -7208,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>22</v>
@@ -7244,18 +7410,18 @@
         <v>21</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -7271,13 +7437,13 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
@@ -7310,7 +7476,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
@@ -7367,7 +7533,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>22</v>
@@ -7396,7 +7562,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>22</v>
@@ -7425,7 +7591,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>26</v>
@@ -7479,7 +7645,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>18</v>
@@ -7531,7 +7697,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -7585,7 +7751,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -7675,7 +7841,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7685,7 +7851,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7735,13 +7901,13 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S46" s="28"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="19">
         <f t="shared" ref="B47:P47" si="2">COUNTIF(B4:B43,$A$47)</f>
@@ -7811,12 +7977,12 @@
         <v>2</v>
       </c>
       <c r="S47" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="20">
         <f t="shared" ref="B48:P48" si="4">COUNTIF(B4:B43,$A$48)</f>
@@ -7886,12 +8052,12 @@
         <v>3</v>
       </c>
       <c r="S48" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="19">
         <f t="shared" ref="B49:P49" si="5">COUNTIF(B4:B43,$A$49)</f>
@@ -7961,12 +8127,12 @@
         <v>6</v>
       </c>
       <c r="S49" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="20">
         <f t="shared" ref="B50:P50" si="6">COUNTIF(B4:B43,$A$50)</f>
@@ -8036,12 +8202,12 @@
         <v>6</v>
       </c>
       <c r="S50" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="19">
         <f t="shared" ref="B51:P51" si="7">COUNTIF(B4:B43,$A$51)</f>
@@ -8108,15 +8274,15 @@
         <v>1</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S51" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" s="20">
         <f t="shared" ref="B52:P52" si="8">COUNTIF(B4:B43,$A$52)</f>
@@ -8183,15 +8349,15 @@
         <v>2</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S52" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="19">
         <f t="shared" ref="B53:P53" si="9">COUNTIF(B4:B43,$A$53)</f>
@@ -8258,15 +8424,15 @@
         <v>8</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S53" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" s="20">
         <f t="shared" ref="B54:P54" si="10">COUNTIF(B4:B43,$A$54)</f>
@@ -8333,15 +8499,15 @@
         <v>2</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S54" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="19">
         <f t="shared" ref="B55:P55" si="11">COUNTIF(B4:B43,$A$55)</f>
@@ -8408,15 +8574,15 @@
         <v>8</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S55" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="20">
         <f t="shared" ref="B56:P56" si="12">COUNTIF(B4:B43,$A$56)</f>
@@ -8483,15 +8649,15 @@
         <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S56" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="19">
         <f t="shared" ref="B57:P57" si="13">COUNTIF(B4:B43,$A$57)</f>
@@ -8558,15 +8724,15 @@
         <v>3</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S57" s="46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="20">
         <f t="shared" ref="B58:P58" si="14">COUNTIF(B4:B43,$A$58)</f>
@@ -8633,15 +8799,15 @@
         <v>5</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S58" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="19">
         <f t="shared" ref="B59:P59" si="15">COUNTIF(B4:B43,$A$59)</f>
@@ -8711,12 +8877,12 @@
         <v>4</v>
       </c>
       <c r="S59" s="45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="21">
         <f t="shared" ref="B60:P60" si="16">COUNTIF(B4:B43,$A$60)</f>
@@ -8786,12 +8952,12 @@
         <v>5</v>
       </c>
       <c r="S60" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="19">
         <f t="shared" ref="B61:P61" si="17">COUNTIF(B4:B43,$A$61)</f>
@@ -8861,12 +9027,12 @@
         <v>2</v>
       </c>
       <c r="S61" s="45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="20">
         <f t="shared" ref="B62:P62" si="18">COUNTIF(B4:B43,$A$62)</f>
@@ -8933,15 +9099,15 @@
         <v>7</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S62" s="46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="1:19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:19">
       <c r="A63" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="23">
         <f>SUM(B47:B62)</f>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="12630"/>
+    <workbookView windowWidth="20625" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="鲸某人的凝视" sheetId="1" r:id="rId1"/>
@@ -89,15 +89,15 @@
     <t>4a</t>
   </si>
   <si>
+    <t>5b</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
     <t>皮！</t>
   </si>
   <si>
-    <t>5b</t>
-  </si>
-  <si>
     <t>5a</t>
   </si>
   <si>
@@ -116,6 +116,9 @@
     <t>男仆</t>
   </si>
   <si>
+    <t>火呆</t>
+  </si>
+  <si>
     <t>4x肥</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>5x</t>
   </si>
   <si>
+    <t>骷髅</t>
+  </si>
+  <si>
     <t>注：按照种类格中的名称输入</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
     <t>非常大约 raid打完才有参考价值</t>
   </si>
   <si>
-    <t>骷髅</t>
-  </si>
-  <si>
     <t>狗海豹！敲里mua！凸！</t>
   </si>
   <si>
@@ -212,7 +215,7 @@
     <t>加值</t>
   </si>
   <si>
-    <t>27334-?</t>
+    <t>16698-?</t>
   </si>
   <si>
     <t>火兔子</t>
@@ -225,9 +228,6 @@
   </si>
   <si>
     <t>甜甜圈</t>
-  </si>
-  <si>
-    <t>火呆</t>
   </si>
   <si>
     <t>火奶</t>
@@ -402,7 +402,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,30 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -455,15 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,11 +445,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,28 +491,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +515,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,25 +630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +666,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,13 +732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,79 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,17 +874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,21 +894,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,11 +915,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,25 +932,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,145 +979,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,8 +1620,8 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G94" workbookViewId="0">
-      <selection activeCell="S105" sqref="S105"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1742,12 +1742,18 @@
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1767,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>18</v>
@@ -1776,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>18</v>
@@ -1787,9 +1793,15 @@
       <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -1830,9 +1842,15 @@
       <c r="L5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -1862,7 +1880,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>20</v>
@@ -1873,9 +1891,15 @@
       <c r="L6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
         <v>29</v>
@@ -1922,20 +1946,26 @@
       <c r="L7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0692640692640693</v>
+        <v>0.0606060606060606</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1956,7 +1986,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>21</v>
@@ -1973,20 +2003,26 @@
       <c r="L8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="M8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.0346320346320346</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1995,13 +2031,13 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>18</v>
@@ -2024,20 +2060,26 @@
       <c r="L9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>0.00865800865800866</v>
+        <v>0.0212121212121212</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2052,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -2067,28 +2109,34 @@
         <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.229437229437229</v>
+        <v>0.209090909090909</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2126,20 +2174,26 @@
       <c r="L11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.186147186147186</v>
+        <v>0.203030303030303</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2157,10 +2211,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>21</v>
@@ -2169,28 +2223,34 @@
         <v>22</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0606060606060606</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2202,7 +2262,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>18</v>
@@ -2211,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>21</v>
@@ -2225,20 +2285,26 @@
       <c r="L13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="M13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0822510822510823</v>
+        <v>0.0878787878787879</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2250,7 +2316,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>27</v>
@@ -2265,28 +2331,34 @@
         <v>20</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.134199134199134</v>
+        <v>0.151515151515152</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2296,7 +2368,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
@@ -2314,28 +2386,34 @@
         <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.051948051948052</v>
+        <v>0.0424242424242424</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2345,13 +2423,13 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>18</v>
@@ -2363,25 +2441,31 @@
         <v>18</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0606060606060606</v>
+        <v>0.0515151515151515</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2391,7 +2475,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>23</v>
@@ -2404,25 +2488,31 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="M17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.00865800865800866</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2450,20 +2540,26 @@
       <c r="L18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0735930735930736</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2491,9 +2587,15 @@
       <c r="L19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2512,10 +2614,10 @@
         <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
@@ -2527,12 +2629,18 @@
       <c r="L20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2555,20 +2663,26 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2587,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="9" t="s">
@@ -2599,12 +2713,18 @@
       <c r="L22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2631,17 +2751,23 @@
         <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2673,12 +2799,18 @@
       <c r="L24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2702,7 +2834,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>20</v>
@@ -2710,12 +2842,18 @@
       <c r="L25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2731,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>18</v>
@@ -2743,9 +2881,15 @@
         <v>20</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="M26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
@@ -2774,9 +2918,15 @@
         <v>21</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="M27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -2791,7 +2941,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>27</v>
@@ -2803,19 +2953,25 @@
         <v>18</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="M28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>2176.47058823529</v>
+        <v>3045.45454545455</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2839,12 +2995,18 @@
         <v>18</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2870,15 +3032,21 @@
         <v>18</v>
       </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="M30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2900,12 +3068,18 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
@@ -2929,12 +3103,16 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
@@ -2949,7 +3127,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>20</v>
@@ -2961,19 +3139,23 @@
         <v>23</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S33" s="37">
         <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*33-40)</f>
-        <v>0.256164383561644</v>
+        <v>0.231233822260569</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2995,12 +3177,16 @@
         <v>18</v>
       </c>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -3021,15 +3207,19 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="M35" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -3053,12 +3243,16 @@
         <v>27</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="M36" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -3084,10 +3278,12 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -3111,10 +3307,12 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -3141,7 +3339,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -3210,7 +3408,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -3260,7 +3458,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -4642,13 +4840,19 @@
       <c r="L103" s="13">
         <v>9</v>
       </c>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
+      <c r="M103" s="13">
+        <v>11</v>
+      </c>
+      <c r="N103" s="13">
+        <v>24</v>
+      </c>
+      <c r="O103" s="13">
+        <v>35</v>
+      </c>
       <c r="P103" s="13"/>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4656,13 +4860,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4675,17 +4879,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4703,13 +4907,13 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S105" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -4852,7 +5056,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4922,12 +5126,12 @@
         <v>5</v>
       </c>
       <c r="S108" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4997,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="S109" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -5069,7 +5273,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S110" s="57" t="s">
         <v>32</v>
@@ -5077,7 +5281,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -5144,15 +5348,15 @@
         <v>1</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S111" s="57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -5208,7 +5412,7 @@
       </c>
       <c r="O112" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="44">
         <f t="shared" si="9"/>
@@ -5216,18 +5420,18 @@
       </c>
       <c r="Q112" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R112" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S112" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" ref="B113:P113" si="10">COUNTIF(B3:B102,$A$113)</f>
@@ -5297,12 +5501,12 @@
         <v>1</v>
       </c>
       <c r="S113" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B114" s="44">
         <f t="shared" ref="B114:P114" si="11">COUNTIF(B3:B102,$A$114)</f>
@@ -5372,12 +5576,12 @@
         <v>2</v>
       </c>
       <c r="S114" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" ref="B115:P115" si="12">COUNTIF(B3:B102,$A$115)</f>
@@ -5433,7 +5637,7 @@
       </c>
       <c r="O115" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115" s="5">
         <f t="shared" si="12"/>
@@ -5441,13 +5645,13 @@
       </c>
       <c r="Q115" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" s="5">
         <v>3</v>
       </c>
       <c r="S115" s="28" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -5527,7 +5731,7 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" ref="B117:P117" si="14">COUNTIF(B3:B102,$A$117)</f>
@@ -5579,7 +5783,7 @@
       </c>
       <c r="N117" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" s="5">
         <f t="shared" si="14"/>
@@ -5591,18 +5795,18 @@
       </c>
       <c r="Q117" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117" s="5">
         <v>3</v>
       </c>
       <c r="S117" s="28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B118" s="44">
         <f t="shared" ref="B118:P118" si="15">COUNTIF(B3:B102,$A$118)</f>
@@ -5650,7 +5854,7 @@
       </c>
       <c r="M118" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="44">
         <f t="shared" si="15"/>
@@ -5666,18 +5870,18 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R118" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S118" s="57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B119" s="54">
         <f t="shared" ref="B119:P119" si="16">COUNTIF(B3:B102,$A$119)</f>
@@ -5729,7 +5933,7 @@
       </c>
       <c r="N119" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" s="54">
         <f t="shared" si="16"/>
@@ -5741,18 +5945,18 @@
       </c>
       <c r="Q119" s="56">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R119" s="5">
         <v>3</v>
       </c>
       <c r="S119" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B120" s="44">
         <f t="shared" ref="B120:P120" si="17">COUNTIF(B3:B102,$A$120)</f>
@@ -5822,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="S120" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -5944,15 +6148,15 @@
       </c>
       <c r="M122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P122" s="55">
         <f t="shared" si="19"/>
@@ -5960,7 +6164,7 @@
       </c>
       <c r="Q122" s="58">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -6110,10 +6314,10 @@
         <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -6122,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
@@ -6134,7 +6338,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
@@ -6168,7 +6372,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
@@ -6180,7 +6384,7 @@
         <v>84</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>20</v>
@@ -6204,7 +6408,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6219,7 +6423,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
@@ -6264,7 +6468,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>22</v>
@@ -6282,7 +6486,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>90</v>
@@ -6291,7 +6495,7 @@
         <v>91</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>22</v>
@@ -6335,7 +6539,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
@@ -6347,7 +6551,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>21</v>
@@ -6360,7 +6564,7 @@
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -6376,10 +6580,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>90</v>
@@ -6400,7 +6604,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>20</v>
@@ -6453,7 +6657,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>89</v>
@@ -6510,7 +6714,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>19</v>
@@ -6558,7 +6762,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
@@ -6567,13 +6771,13 @@
         <v>23</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>20</v>
@@ -6639,7 +6843,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>20</v>
@@ -6649,7 +6853,7 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6668,7 +6872,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -6693,7 +6897,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
@@ -6729,7 +6933,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>97</v>
@@ -6797,13 +7001,13 @@
         <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>87</v>
@@ -6848,13 +7052,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
@@ -6866,7 +7070,7 @@
         <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>22</v>
@@ -6876,7 +7080,7 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6895,7 +7099,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
@@ -6908,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -6918,18 +7122,18 @@
         <v>28</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6972,11 +7176,11 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -7046,7 +7250,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
@@ -7065,10 +7269,10 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -7088,7 +7292,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>99</v>
@@ -7122,7 +7326,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -7130,7 +7334,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>20</v>
@@ -7170,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
@@ -7202,7 +7406,7 @@
         <v>86</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>22</v>
@@ -7235,7 +7439,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>28</v>
@@ -7337,11 +7541,11 @@
         <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -7352,10 +7556,10 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -7421,7 +7625,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -7440,7 +7644,7 @@
         <v>90</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>93</v>
@@ -7480,7 +7684,7 @@
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -7594,7 +7798,7 @@
         <v>103</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7672,7 +7876,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7748,7 +7952,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>23</v>
@@ -7841,7 +8045,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7851,7 +8055,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7901,7 +8105,7 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S46" s="28"/>
     </row>
@@ -8274,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S51" s="46" t="s">
         <v>104</v>
@@ -8349,7 +8553,7 @@
         <v>2</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S52" s="46" t="s">
         <v>97</v>
@@ -8424,7 +8628,7 @@
         <v>8</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S53" s="46" t="s">
         <v>87</v>
@@ -8499,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S54" s="46" t="s">
         <v>78</v>
@@ -8574,7 +8778,7 @@
         <v>8</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S55" s="46" t="s">
         <v>84</v>
@@ -8649,7 +8853,7 @@
         <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>93</v>
@@ -8724,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S57" s="46" t="s">
         <v>95</v>
@@ -8799,7 +9003,7 @@
         <v>5</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S58" s="46" t="s">
         <v>89</v>
@@ -9099,7 +9303,7 @@
         <v>7</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S62" s="46" t="s">
         <v>90</v>

--- a/MayFire.xlsx
+++ b/MayFire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="12630"/>
+    <workbookView windowWidth="12120" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="鲸某人的凝视" sheetId="1" r:id="rId1"/>
@@ -89,15 +89,15 @@
     <t>4a</t>
   </si>
   <si>
+    <t>5b</t>
+  </si>
+  <si>
     <t>表格有误会更新，版本号左上角</t>
   </si>
   <si>
     <t>皮！</t>
   </si>
   <si>
-    <t>5b</t>
-  </si>
-  <si>
     <t>5a</t>
   </si>
   <si>
@@ -116,6 +116,9 @@
     <t>男仆</t>
   </si>
   <si>
+    <t>火呆</t>
+  </si>
+  <si>
     <t>4x肥</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>5x</t>
   </si>
   <si>
+    <t>骷髅</t>
+  </si>
+  <si>
     <t>注：按照种类格中的名称输入</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
     <t>非常大约 raid打完才有参考价值</t>
   </si>
   <si>
-    <t>骷髅</t>
-  </si>
-  <si>
     <t>狗海豹！敲里mua！凸！</t>
   </si>
   <si>
@@ -212,7 +215,7 @@
     <t>加值</t>
   </si>
   <si>
-    <t>27334-?</t>
+    <t>16698-?</t>
   </si>
   <si>
     <t>火兔子</t>
@@ -225,9 +228,6 @@
   </si>
   <si>
     <t>甜甜圈</t>
-  </si>
-  <si>
-    <t>火呆</t>
   </si>
   <si>
     <t>火奶</t>
@@ -340,10 +340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -394,6 +394,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -403,21 +410,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,8 +446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,9 +477,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,20 +516,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -530,8 +523,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,13 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,13 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,103 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +684,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,15 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -909,21 +900,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,7 +919,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,6 +957,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -979,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,16 +1620,16 @@
   <sheetPr/>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G94" workbookViewId="0">
-      <selection activeCell="S105" sqref="S105"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="M98" workbookViewId="0">
+      <selection activeCell="S120" sqref="O109:S120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="19" max="19" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:19">
+    <row r="1" ht="30" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1742,12 +1742,20 @@
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="Q3" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="28"/>
@@ -1767,7 +1775,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>18</v>
@@ -1776,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>18</v>
@@ -1787,10 +1795,18 @@
       <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="28"/>
@@ -1830,10 +1846,18 @@
       <c r="L5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="28"/>
@@ -1862,21 +1886,29 @@
         <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
       <c r="Q6" s="29" t="s">
         <v>29</v>
       </c>
@@ -1922,20 +1954,28 @@
       <c r="L7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="Q7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="5">
         <f>COUNTIF($B$3:$P$102,Q7)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S7" s="31">
         <f t="shared" ref="S7:S18" si="0">R7/$R$104</f>
-        <v>0.0692640692640693</v>
+        <v>0.0574712643678161</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1956,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>21</v>
@@ -1973,20 +2013,28 @@
       <c r="L8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="M8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="5">
         <f>COUNTIF($B$3:$P$102,Q8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.0346320346320346</v>
+        <v>0.028735632183908</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1995,13 +2043,13 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>18</v>
@@ -2024,20 +2072,28 @@
       <c r="L9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="1">COUNTIF($B$3:$P$102,Q9)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>0.00865800865800866</v>
+        <v>0.0201149425287356</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2052,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -2067,28 +2123,36 @@
         <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.229437229437229</v>
+        <v>0.209770114942529</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2126,20 +2190,28 @@
       <c r="L11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.186147186147186</v>
+        <v>0.201149425287356</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2157,10 +2229,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>21</v>
@@ -2169,28 +2241,36 @@
         <v>22</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>0.0606060606060606</v>
+        <v>0.0718390804597701</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2202,16 +2282,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>21</v>
@@ -2225,20 +2305,28 @@
       <c r="L13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="M13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>
-        <v>0.0822510822510823</v>
+        <v>0.0862068965517241</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2250,7 +2338,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>27</v>
@@ -2265,28 +2353,36 @@
         <v>20</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="0"/>
-        <v>0.134199134199134</v>
+        <v>0.158045977011494</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2296,7 +2392,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
@@ -2314,28 +2410,36 @@
         <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="0"/>
-        <v>0.051948051948052</v>
+        <v>0.0402298850574713</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2345,13 +2449,13 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>18</v>
@@ -2363,25 +2467,33 @@
         <v>18</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Q16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="0"/>
-        <v>0.0606060606060606</v>
+        <v>0.0517241379310345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2391,7 +2503,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>23</v>
@@ -2404,25 +2516,33 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q17" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="0"/>
-        <v>0.00865800865800866</v>
+        <v>0.0114942528735632</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2450,20 +2570,28 @@
       <c r="L18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18" s="5">
         <f>Q122</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="0"/>
-        <v>0.0735930735930736</v>
+        <v>0.0632183908045977</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2491,10 +2619,18 @@
       <c r="L19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="51">
@@ -2512,10 +2648,10 @@
         <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
@@ -2527,12 +2663,20 @@
       <c r="L20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q20" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="28"/>
@@ -2555,20 +2699,26 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="28"/>
@@ -2587,7 +2737,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="9" t="s">
@@ -2599,12 +2749,18 @@
       <c r="L22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="28"/>
@@ -2631,17 +2787,23 @@
         <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="28"/>
@@ -2673,12 +2835,18 @@
       <c r="L24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="28"/>
@@ -2702,7 +2870,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>20</v>
@@ -2710,12 +2878,18 @@
       <c r="L25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="28"/>
@@ -2731,7 +2905,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>18</v>
@@ -2743,9 +2917,15 @@
         <v>20</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="M26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
@@ -2774,9 +2954,15 @@
         <v>21</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="M27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -2791,7 +2977,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>27</v>
@@ -2803,19 +2989,25 @@
         <v>18</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="M28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S28" s="52">
         <f>Q105*1000/R18</f>
-        <v>2176.47058823529</v>
+        <v>3227.27272727273</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2839,12 +3031,18 @@
         <v>18</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="28"/>
@@ -2870,15 +3068,21 @@
         <v>18</v>
       </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="M30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S30" s="28"/>
     </row>
@@ -2900,12 +3104,18 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
@@ -2929,12 +3139,16 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
@@ -2949,7 +3163,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>20</v>
@@ -2961,19 +3175,23 @@
         <v>23</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S33" s="37">
-        <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*33-40)</f>
-        <v>0.256164383561644</v>
+        <f>(R104-(COUNTA(B3:P3)-3+1)*5-(COUNTA(B3:P3)-7+1)*1)/((Q105*11)+(COUNTA(B3:P3)+1)*30-40)</f>
+        <v>0.235096557514694</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2995,12 +3213,16 @@
         <v>18</v>
       </c>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="28"/>
@@ -3021,15 +3243,19 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="M35" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="28"/>
@@ -3053,12 +3279,16 @@
         <v>27</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="M36" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="28"/>
@@ -3084,10 +3314,12 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="28"/>
@@ -3111,10 +3343,12 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="28"/>
@@ -3141,7 +3375,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="28"/>
@@ -3210,7 +3444,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -3260,7 +3494,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -4642,13 +4876,21 @@
       <c r="L103" s="13">
         <v>9</v>
       </c>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
+      <c r="M103" s="13">
+        <v>11</v>
+      </c>
+      <c r="N103" s="13">
+        <v>24</v>
+      </c>
+      <c r="O103" s="13">
+        <v>35</v>
+      </c>
+      <c r="P103" s="13">
+        <v>17</v>
+      </c>
       <c r="Q103" s="13">
         <f>SUM(B103:P103)</f>
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="28"/>
@@ -4656,13 +4898,13 @@
     <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -4675,17 +4917,17 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
       <c r="Q104" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R104" s="5">
         <f>COUNTA(B3:P102)</f>
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -4703,13 +4945,13 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
       <c r="Q105" s="42">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S105" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -4852,7 +5094,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B108" s="44">
         <f t="shared" ref="B108:P108" si="5">COUNTIF(B3:B102,$A$108)</f>
@@ -4922,12 +5164,12 @@
         <v>5</v>
       </c>
       <c r="S108" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" ref="B109:P109" si="6">COUNTIF(B3:B102,$A$109)</f>
@@ -4997,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="S109" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -5069,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S110" s="57" t="s">
         <v>32</v>
@@ -5077,7 +5319,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" ref="B111:P111" si="8">COUNTIF(B3:B102,$A$111)</f>
@@ -5144,15 +5386,15 @@
         <v>1</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S111" s="57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B112" s="44">
         <f t="shared" ref="B112:P112" si="9">COUNTIF(B3:B102,$A$112)</f>
@@ -5208,7 +5450,7 @@
       </c>
       <c r="O112" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="44">
         <f t="shared" si="9"/>
@@ -5216,18 +5458,18 @@
       </c>
       <c r="Q112" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R112" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S112" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" ref="B113:P113" si="10">COUNTIF(B3:B102,$A$113)</f>
@@ -5297,12 +5539,12 @@
         <v>1</v>
       </c>
       <c r="S113" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B114" s="44">
         <f t="shared" ref="B114:P114" si="11">COUNTIF(B3:B102,$A$114)</f>
@@ -5369,15 +5611,15 @@
         <v>0</v>
       </c>
       <c r="R114" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S114" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" ref="B115:P115" si="12">COUNTIF(B3:B102,$A$115)</f>
@@ -5433,7 +5675,7 @@
       </c>
       <c r="O115" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115" s="5">
         <f t="shared" si="12"/>
@@ -5441,13 +5683,13 @@
       </c>
       <c r="Q115" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" s="5">
         <v>3</v>
       </c>
       <c r="S115" s="28" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -5527,7 +5769,7 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" ref="B117:P117" si="14">COUNTIF(B3:B102,$A$117)</f>
@@ -5579,7 +5821,7 @@
       </c>
       <c r="N117" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" s="5">
         <f t="shared" si="14"/>
@@ -5591,18 +5833,18 @@
       </c>
       <c r="Q117" s="56">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117" s="5">
         <v>3</v>
       </c>
       <c r="S117" s="28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B118" s="44">
         <f t="shared" ref="B118:P118" si="15">COUNTIF(B3:B102,$A$118)</f>
@@ -5650,7 +5892,7 @@
       </c>
       <c r="M118" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="44">
         <f t="shared" si="15"/>
@@ -5666,18 +5908,18 @@
       </c>
       <c r="Q118" s="56">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R118" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S118" s="57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B119" s="54">
         <f t="shared" ref="B119:P119" si="16">COUNTIF(B3:B102,$A$119)</f>
@@ -5729,7 +5971,7 @@
       </c>
       <c r="N119" s="54">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" s="54">
         <f t="shared" si="16"/>
@@ -5741,18 +5983,18 @@
       </c>
       <c r="Q119" s="56">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R119" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S119" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B120" s="44">
         <f t="shared" ref="B120:P120" si="17">COUNTIF(B3:B102,$A$120)</f>
@@ -5822,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="S120" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -5894,7 +6136,7 @@
       <c r="R121" s="5"/>
       <c r="S121" s="28"/>
     </row>
-    <row r="122" ht="14.25" spans="1:19">
+    <row r="122" ht="15" spans="1:19">
       <c r="A122" s="22" t="s">
         <v>72</v>
       </c>
@@ -5944,15 +6186,15 @@
       </c>
       <c r="M122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O122" s="55">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P122" s="55">
         <f t="shared" si="19"/>
@@ -5960,7 +6202,7 @@
       </c>
       <c r="Q122" s="58">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="49"/>
@@ -5985,7 +6227,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="26.25" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -6010,7 +6252,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="31.5" spans="1:19">
+    <row r="2" ht="30" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -6110,10 +6352,10 @@
         <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -6122,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
@@ -6134,7 +6376,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10" t="s">
@@ -6168,7 +6410,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
@@ -6180,7 +6422,7 @@
         <v>84</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>20</v>
@@ -6204,7 +6446,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6219,7 +6461,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
@@ -6264,7 +6506,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>22</v>
@@ -6282,7 +6524,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>90</v>
@@ -6291,7 +6533,7 @@
         <v>91</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>22</v>
@@ -6335,7 +6577,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
@@ -6347,7 +6589,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>21</v>
@@ -6360,7 +6602,7 @@
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
@@ -6376,10 +6618,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>90</v>
@@ -6400,7 +6642,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>20</v>
@@ -6453,7 +6695,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>89</v>
@@ -6510,7 +6752,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>19</v>
@@ -6558,7 +6800,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
@@ -6567,13 +6809,13 @@
         <v>23</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>20</v>
@@ -6639,7 +6881,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>20</v>
@@ -6649,7 +6891,7 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="0"/>
@@ -6668,7 +6910,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -6693,7 +6935,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
@@ -6729,7 +6971,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>97</v>
@@ -6797,13 +7039,13 @@
         <v>22</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>87</v>
@@ -6848,13 +7090,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
@@ -6866,7 +7108,7 @@
         <v>21</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>22</v>
@@ -6876,7 +7118,7 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="5">
         <f>COUNTIF($B$4:$P$43,Q17)</f>
@@ -6895,7 +7137,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
@@ -6908,7 +7150,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -6918,18 +7160,18 @@
         <v>28</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R18" s="5">
         <f>Q63</f>
@@ -6972,11 +7214,11 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13"/>
@@ -7046,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7" t="s">
@@ -7065,10 +7307,10 @@
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S21" s="35">
         <f>Q46*1000/R18</f>
@@ -7088,7 +7330,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>99</v>
@@ -7122,7 +7364,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -7130,7 +7372,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>20</v>
@@ -7170,7 +7412,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="8" t="s">
@@ -7202,7 +7444,7 @@
         <v>86</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>22</v>
@@ -7235,7 +7477,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>28</v>
@@ -7337,11 +7579,11 @@
         <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -7352,10 +7594,10 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R29" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S29" s="37">
         <f>(R45-26)/((Q46*11)+280)</f>
@@ -7421,7 +7663,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="13"/>
@@ -7440,7 +7682,7 @@
         <v>90</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>93</v>
@@ -7480,7 +7722,7 @@
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -7594,7 +7836,7 @@
         <v>103</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -7672,7 +7914,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7748,7 +7990,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>23</v>
@@ -7841,7 +8083,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" s="5">
         <f>COUNTA(B4:P43)</f>
@@ -7851,7 +8093,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="17">
         <v>6</v>
@@ -7901,7 +8143,7 @@
         <v>84</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S46" s="28"/>
     </row>
@@ -8274,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S51" s="46" t="s">
         <v>104</v>
@@ -8349,7 +8591,7 @@
         <v>2</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S52" s="46" t="s">
         <v>97</v>
@@ -8424,7 +8666,7 @@
         <v>8</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S53" s="46" t="s">
         <v>87</v>
@@ -8499,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S54" s="46" t="s">
         <v>78</v>
@@ -8574,7 +8816,7 @@
         <v>8</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S55" s="46" t="s">
         <v>84</v>
@@ -8649,7 +8891,7 @@
         <v>7</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>93</v>
@@ -8724,7 +8966,7 @@
         <v>3</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S57" s="46" t="s">
         <v>95</v>
@@ -8799,7 +9041,7 @@
         <v>5</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S58" s="46" t="s">
         <v>89</v>
@@ -9099,13 +9341,13 @@
         <v>7</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S62" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:19">
+    <row r="63" ht="15" spans="1:19">
       <c r="A63" s="22" t="s">
         <v>72</v>
       </c>
